--- a/金融/股市机器学习/风险投资组合分析.xlsx
+++ b/金融/股市机器学习/风险投资组合分析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11470\Desktop\HARISAN\Various-Codes\金融\股市机器学习\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD03613-AE24-4A06-974C-0C887A888717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D143FAC-2407-40E0-86D2-F926133CDFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="1940" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,34 +51,34 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>688426.SH</t>
+    <t>600499.SH</t>
   </si>
   <si>
-    <t>430139.BJ</t>
+    <t>605117.SH</t>
   </si>
   <si>
-    <t>300308.SZ</t>
+    <t>000831.SZ</t>
   </si>
   <si>
-    <t>300502.SZ</t>
+    <t>600123.SH</t>
   </si>
   <si>
-    <t>688498.SH</t>
+    <t>601880.SH</t>
   </si>
   <si>
-    <t>430718.BJ</t>
+    <t>000737.SZ</t>
   </si>
   <si>
-    <t>688188.SH</t>
+    <t>600219.SH</t>
   </si>
   <si>
-    <t>688401.SH</t>
+    <t>600508.SH</t>
   </si>
   <si>
-    <t>688484.SH</t>
+    <t>601702.SH</t>
   </si>
   <si>
-    <t>301269.SZ</t>
+    <t>600233.SH</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="B1" s="1">
         <f ca="1">[1]!thsiFinD("ths_28rnhsyl_fund",C1,D4)</f>
-        <v>1.7916455202921</v>
+        <v>1.9286871216839001</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -485,43 +485,43 @@
       </c>
       <c r="E2" s="4" t="str">
         <f>B3&amp;A3</f>
-        <v>康为世纪688426.SH</v>
+        <v>科达制造600499.SH</v>
       </c>
       <c r="F2" t="str">
         <f>B4&amp;A4</f>
-        <v>华岭股份430139.BJ</v>
+        <v>德业股份605117.SH</v>
       </c>
       <c r="G2" t="str">
         <f>B5&amp;A5</f>
-        <v>中际旭创300308.SZ</v>
+        <v>中国稀土000831.SZ</v>
       </c>
       <c r="H2" t="str">
         <f>B6&amp;A6</f>
-        <v>新易盛300502.SZ</v>
+        <v>兰花科创600123.SH</v>
       </c>
       <c r="I2" t="str">
         <f>B7&amp;A7</f>
-        <v>源杰科技688498.SH</v>
+        <v>辽港股份601880.SH</v>
       </c>
       <c r="J2" t="str">
         <f>B8&amp;A8</f>
-        <v>合肥高科430718.BJ</v>
+        <v>北方铜业000737.SZ</v>
       </c>
       <c r="K2" t="str">
         <f>B9&amp;A9</f>
-        <v>柏楚电子688188.SH</v>
+        <v>南山铝业600219.SH</v>
       </c>
       <c r="L2" t="str">
         <f>B10&amp;A10</f>
-        <v>路维光电688401.SH</v>
+        <v>上海能源600508.SH</v>
       </c>
       <c r="M2" t="str">
         <f>B11&amp;A11</f>
-        <v>南芯科技688484.SH</v>
+        <v>华峰铝业601702.SH</v>
       </c>
       <c r="N2" t="str">
         <f>B12&amp;A12</f>
-        <v>华大九天301269.SZ</v>
+        <v>圆通速递600233.SH</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -530,15 +530,15 @@
       </c>
       <c r="B3" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A3)</f>
-        <v>康为世纪</v>
+        <v>科达制造</v>
       </c>
       <c r="C3" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A3,$D$4,100,"")</f>
-        <v>31.88</v>
+        <v>10.32</v>
       </c>
       <c r="D3" s="5">
         <f ca="1">TODAY()</f>
-        <v>45270</v>
+        <v>45286</v>
       </c>
       <c r="E3">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D3)</f>
@@ -587,55 +587,55 @@
       </c>
       <c r="B4" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A4)</f>
-        <v>华岭股份</v>
+        <v>德业股份</v>
       </c>
       <c r="C4" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A4,$D$4,100,"")</f>
-        <v>14.19</v>
+        <v>75.5</v>
       </c>
       <c r="D4" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>45269</v>
+        <v>45285</v>
       </c>
       <c r="E4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D4)</f>
-        <v>0</v>
+        <v>0.97847358121329997</v>
       </c>
       <c r="F4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D4)</f>
-        <v>0</v>
+        <v>2.9873141454099001</v>
       </c>
       <c r="G4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D4)</f>
-        <v>0</v>
+        <v>3.6883703424915</v>
       </c>
       <c r="H4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D4)</f>
-        <v>0</v>
+        <v>1.77690029615</v>
       </c>
       <c r="I4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D4)</f>
-        <v>0</v>
+        <v>-0.68493150684932003</v>
       </c>
       <c r="J4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D4)</f>
-        <v>0</v>
+        <v>-0.17761989342806001</v>
       </c>
       <c r="K4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D4)</f>
-        <v>0</v>
+        <v>-0.35460992907800998</v>
       </c>
       <c r="L4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D4)</f>
-        <v>0</v>
+        <v>0.29006526468456001</v>
       </c>
       <c r="M4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D4)</f>
-        <v>0</v>
+        <v>2.1831412977562001</v>
       </c>
       <c r="N4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D4)</f>
-        <v>0</v>
+        <v>1.4237855946399001</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -644,55 +644,55 @@
       </c>
       <c r="B5" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A5)</f>
-        <v>中际旭创</v>
+        <v>中国稀土</v>
       </c>
       <c r="C5" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A5,$D$4,100,"")</f>
-        <v>117.5</v>
+        <v>27.55</v>
       </c>
       <c r="D5" s="6">
         <f ca="1">D4-1</f>
-        <v>45268</v>
+        <v>45284</v>
       </c>
       <c r="E5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D5)</f>
-        <v>3.7760416666666998</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D5)</f>
-        <v>3.2751091703056998</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D5)</f>
-        <v>12.580243364952</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D5)</f>
-        <v>6.3162024323264001</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D5)</f>
-        <v>14.318982880161</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D5)</f>
-        <v>3.3271719038817</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D5)</f>
-        <v>1.6940026507621</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D5)</f>
-        <v>6.2479117941864004</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D5)</f>
-        <v>0.25900635742876998</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D5)</f>
-        <v>1.9158527422989999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -701,55 +701,55 @@
       </c>
       <c r="B6" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A6)</f>
-        <v>新易盛</v>
+        <v>兰花科创</v>
       </c>
       <c r="C6" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A6,$D$4,100,"")</f>
-        <v>54.2</v>
+        <v>10.31</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" ref="D6:D48" ca="1" si="0">D5-1</f>
-        <v>45267</v>
+        <v>45283</v>
       </c>
       <c r="E6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D6)</f>
-        <v>1.3861386138614</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D6)</f>
-        <v>3.3082706766916998</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D6)</f>
-        <v>3.6650774731824001</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D6)</f>
-        <v>5.3305785123967002</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D6)</f>
-        <v>3.1554343591740999</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D6)</f>
-        <v>4.7434656340755001</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D6)</f>
-        <v>4.6780836765662004</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D6)</f>
-        <v>4.5406915822564002</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D6)</f>
-        <v>0.52071005917158997</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D6)</f>
-        <v>1.992337164751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -758,55 +758,55 @@
       </c>
       <c r="B7" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A7)</f>
-        <v>源杰科技</v>
+        <v>辽港股份</v>
       </c>
       <c r="C7" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A7,$D$4,100,"")</f>
-        <v>181.63</v>
+        <v>1.45</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45266</v>
+        <v>45282</v>
       </c>
       <c r="E7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D7)</f>
-        <v>-3.2992411745292001E-2</v>
+        <v>2.3023023023023002</v>
       </c>
       <c r="F7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D7)</f>
-        <v>-2.6354319180088002</v>
+        <v>9.4179104477611997</v>
       </c>
       <c r="G7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D7)</f>
-        <v>-0.11904761904761001</v>
+        <v>1.4896867838043999</v>
       </c>
       <c r="H7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D7)</f>
-        <v>0.62370062370061996</v>
+        <v>0.79601990049751004</v>
       </c>
       <c r="I7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D7)</f>
-        <v>-2.6299152863825999</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D7)</f>
-        <v>-0.57747834456208003</v>
+        <v>1.2589928057554001</v>
       </c>
       <c r="K7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D7)</f>
-        <v>3.1252794420101999</v>
+        <v>1.8050541516245</v>
       </c>
       <c r="L7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D7)</f>
-        <v>0.35050823694355998</v>
+        <v>0.58351568198393999</v>
       </c>
       <c r="M7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D7)</f>
-        <v>1.8808777429467001</v>
+        <v>-0.36253776435047003</v>
       </c>
       <c r="N7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D7)</f>
-        <v>4.0047818290496</v>
+        <v>0.16778523489933</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -815,55 +815,55 @@
       </c>
       <c r="B8" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A8)</f>
-        <v>合肥高科</v>
+        <v>北方铜业</v>
       </c>
       <c r="C8" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A8,$D$4,100,"")</f>
-        <v>11.18</v>
+        <v>5.62</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45265</v>
+        <v>45281</v>
       </c>
       <c r="E8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D8)</f>
-        <v>0.1652346331791</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D8)</f>
-        <v>6.71875</v>
+        <v>9.9983582334592001</v>
       </c>
       <c r="G8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D8)</f>
-        <v>-1.9264448336252</v>
+        <v>0.53763440860214995</v>
       </c>
       <c r="H8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D8)</f>
-        <v>-1.8367346938775</v>
+        <v>-0.19860973187686001</v>
       </c>
       <c r="I8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D8)</f>
-        <v>-5.3097874887758003</v>
+        <v>-0.68027210884353995</v>
       </c>
       <c r="J8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D8)</f>
-        <v>15.959821428571001</v>
+        <v>1.8315018315017999</v>
       </c>
       <c r="K8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D8)</f>
-        <v>-1.510414373156</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D8)</f>
-        <v>-4.9000000000000004</v>
+        <v>-0.50798258345427005</v>
       </c>
       <c r="M8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D8)</f>
-        <v>-1.9853462538407001</v>
+        <v>-0.18094089264172</v>
       </c>
       <c r="N8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D8)</f>
-        <v>9.9720781810924003E-2</v>
+        <v>0.76077768385460998</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -872,55 +872,55 @@
       </c>
       <c r="B9" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A9)</f>
-        <v>柏楚电子</v>
+        <v>南山铝业</v>
       </c>
       <c r="C9" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A9,$D$4,100,"")</f>
-        <v>245.53</v>
+        <v>2.81</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45264</v>
+        <v>45280</v>
       </c>
       <c r="E9">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D9)</f>
-        <v>-0.94926350245499003</v>
+        <v>0.30120481927710002</v>
       </c>
       <c r="F9">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D9)</f>
-        <v>-1.8404907975460001</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D9)</f>
-        <v>2.78</v>
+        <v>-0.8</v>
       </c>
       <c r="H9">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D9)</f>
-        <v>-1.6656632550671999</v>
+        <v>0.90180360721442998</v>
       </c>
       <c r="I9">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D9)</f>
-        <v>2.8</v>
+        <v>-0.67567567567567999</v>
       </c>
       <c r="J9">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D9)</f>
-        <v>-2.9252437703142</v>
+        <v>0.55248618784531001</v>
       </c>
       <c r="K9">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D9)</f>
-        <v>-1.2995479833101999</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D9)</f>
-        <v>-1.92873488068</v>
+        <v>0.58394160583942001</v>
       </c>
       <c r="M9">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D9)</f>
-        <v>-1.3982754602656999</v>
+        <v>0.48484848484846998</v>
       </c>
       <c r="N9">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D9)</f>
-        <v>0.99707926276562997</v>
+        <v>-0.42087542087543001</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -929,31 +929,31 @@
       </c>
       <c r="B10" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A10)</f>
-        <v>路维光电</v>
+        <v>上海能源</v>
       </c>
       <c r="C10" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A10,$D$4,100,"")</f>
-        <v>31.8</v>
+        <v>13.83</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45263</v>
+        <v>45279</v>
       </c>
       <c r="E10">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D10)</f>
-        <v>0</v>
+        <v>-0.10030090270812</v>
       </c>
       <c r="F10">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D10)</f>
-        <v>0</v>
+        <v>4.6204053589832004</v>
       </c>
       <c r="G10">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D10)</f>
-        <v>0</v>
+        <v>-1.5378844711177999</v>
       </c>
       <c r="H10">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D10)</f>
-        <v>0</v>
+        <v>-0.49850448654037</v>
       </c>
       <c r="I10">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D10)</f>
@@ -961,7 +961,7 @@
       </c>
       <c r="J10">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D10)</f>
-        <v>0</v>
+        <v>-1.0928961748634001</v>
       </c>
       <c r="K10">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D10)</f>
@@ -969,15 +969,15 @@
       </c>
       <c r="L10">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D10)</f>
-        <v>0</v>
+        <v>-1.2256669069935</v>
       </c>
       <c r="M10">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D10)</f>
-        <v>0</v>
+        <v>-0.90090090090089003</v>
       </c>
       <c r="N10">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D10)</f>
-        <v>0</v>
+        <v>-0.83472454090149995</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -986,31 +986,31 @@
       </c>
       <c r="B11" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A11)</f>
-        <v>南芯科技</v>
+        <v>华峰铝业</v>
       </c>
       <c r="C11" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A11,$D$4,100,"")</f>
-        <v>42.58</v>
+        <v>16.850000000000001</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45262</v>
+        <v>45278</v>
       </c>
       <c r="E11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D11)</f>
-        <v>0</v>
+        <v>0.40281973816717997</v>
       </c>
       <c r="F11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D11)</f>
-        <v>0</v>
+        <v>-0.15434745326703</v>
       </c>
       <c r="G11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D11)</f>
-        <v>0</v>
+        <v>-2.2010271460015001</v>
       </c>
       <c r="H11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D11)</f>
-        <v>0</v>
+        <v>-0.69306930693070001</v>
       </c>
       <c r="I11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D11)</f>
@@ -1018,23 +1018,23 @@
       </c>
       <c r="J11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D11)</f>
-        <v>0</v>
+        <v>-1.4362657091562001</v>
       </c>
       <c r="K11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D11)</f>
-        <v>0</v>
+        <v>-1.4234875444840001</v>
       </c>
       <c r="L11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D11)</f>
-        <v>0</v>
+        <v>-0.8577555396712</v>
       </c>
       <c r="M11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D11)</f>
-        <v>0</v>
+        <v>-0.89285714285716</v>
       </c>
       <c r="N11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D11)</f>
-        <v>0</v>
+        <v>-0.82781456953641996</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1043,55 +1043,55 @@
       </c>
       <c r="B12" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A12)</f>
-        <v>华大九天</v>
+        <v>圆通速递</v>
       </c>
       <c r="C12" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A12,$D$4,100,"")</f>
-        <v>108.52</v>
+        <v>12.11</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45261</v>
+        <v>45277</v>
       </c>
       <c r="E12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D12)</f>
-        <v>-0.48859934853420001</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D12)</f>
-        <v>-0.68545316070069995</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D12)</f>
-        <v>5.3518752633797</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D12)</f>
-        <v>7.6241900647948002</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D12)</f>
-        <v>9.8938256576723003</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D12)</f>
-        <v>-0.75268817204300997</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D12)</f>
-        <v>2.2168910213692001</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D12)</f>
-        <v>-0.45558086560365002</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D12)</f>
-        <v>-0.39461467038068998</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D12)</f>
-        <v>0.99684670938867004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1099,47 +1099,47 @@
       <c r="B13" s="2"/>
       <c r="D13" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45260</v>
+        <v>45276</v>
       </c>
       <c r="E13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D13)</f>
-        <v>0.82101806239736996</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D13)</f>
-        <v>-1.8684603886397999</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D13)</f>
-        <v>0.18999366687777999</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D13)</f>
-        <v>4.5382704899526001</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D13)</f>
-        <v>-1.9234595741858</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D13)</f>
-        <v>-3.3264033264032999</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D13)</f>
-        <v>2.8794734677088001</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D13)</f>
-        <v>-4.2380803988781999</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D13)</f>
-        <v>0.18604651162790001</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D13)</f>
-        <v>-1.2456052235057999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1147,207 +1147,207 @@
       <c r="B14" s="2"/>
       <c r="D14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45259</v>
+        <v>45275</v>
       </c>
       <c r="E14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D14)</f>
-        <v>-1.9639407598197001</v>
+        <v>-0.40120361083250999</v>
       </c>
       <c r="F14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D14)</f>
-        <v>-5.8409570724842004</v>
+        <v>4.6294634846582001</v>
       </c>
       <c r="G14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D14)</f>
-        <v>-1.0554089709768E-2</v>
+        <v>0.14695077149155999</v>
       </c>
       <c r="H14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D14)</f>
-        <v>-1.2486064659978</v>
+        <v>0.39761431411530002</v>
       </c>
       <c r="I14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D14)</f>
-        <v>-2.1609344581441001</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D14)</f>
-        <v>-13.333333333333</v>
+        <v>0.17985611510793001</v>
       </c>
       <c r="K14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D14)</f>
-        <v>-1.0447761194030001</v>
+        <v>-0.35460992907800998</v>
       </c>
       <c r="L14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D14)</f>
-        <v>5.4204993429697996</v>
+        <v>-0.92067988668555001</v>
       </c>
       <c r="M14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D14)</f>
-        <v>-2.3250406882116E-2</v>
+        <v>-0.94339622641510001</v>
       </c>
       <c r="N14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D14)</f>
-        <v>0.18114118949380001</v>
+        <v>-0.98360655737703995</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45258</v>
+        <v>45274</v>
       </c>
       <c r="E15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D15)</f>
-        <v>0</v>
+        <v>-0.39960039960039001</v>
       </c>
       <c r="F15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D15)</f>
-        <v>-7.9066753078419003</v>
+        <v>-0.42880114346971998</v>
       </c>
       <c r="G15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D15)</f>
-        <v>-3.1977932161831002</v>
+        <v>-0.36603221083456</v>
       </c>
       <c r="H15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D15)</f>
-        <v>-0.99337748344370003</v>
+        <v>0.6</v>
       </c>
       <c r="I15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D15)</f>
-        <v>-1.0276172125883001</v>
+        <v>-0.67114093959732002</v>
       </c>
       <c r="J15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D15)</f>
-        <v>-11.624203821656</v>
+        <v>0.3610108303249</v>
       </c>
       <c r="K15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D15)</f>
-        <v>0.50913719429038995</v>
+        <v>0.35587188612099002</v>
       </c>
       <c r="L15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D15)</f>
-        <v>2.7337158285521999</v>
+        <v>1.3639626704953001</v>
       </c>
       <c r="M15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D15)</f>
-        <v>0.49065420560748002</v>
+        <v>0.17720023626699</v>
       </c>
       <c r="N15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D15)</f>
-        <v>-3.0181086519116E-2</v>
+        <v>0.49423393739701998</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45257</v>
+        <v>45273</v>
       </c>
       <c r="E16">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D16)</f>
-        <v>0.94247643808905002</v>
+        <v>-0.59582919563059</v>
       </c>
       <c r="F16">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D16)</f>
-        <v>15.667166416792</v>
+        <v>-3.4334023464458001</v>
       </c>
       <c r="G16">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D16)</f>
-        <v>3.6864406779660999</v>
+        <v>-1.3005780346821001</v>
       </c>
       <c r="H16">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D16)</f>
-        <v>6.4129668780831999</v>
+        <v>-0.59642147117296995</v>
       </c>
       <c r="I16">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D16)</f>
-        <v>-1.1303022606044999</v>
+        <v>-0.66666666666666996</v>
       </c>
       <c r="J16">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D16)</f>
-        <v>21.001926782274001</v>
+        <v>-0.53859964093358004</v>
       </c>
       <c r="K16">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D16)</f>
-        <v>-1.2479798886694</v>
+        <v>-1.4035087719298001</v>
       </c>
       <c r="L16">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D16)</f>
-        <v>1.472602739726</v>
+        <v>-1.2056737588652</v>
       </c>
       <c r="M16">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D16)</f>
-        <v>0.4223369310183</v>
+        <v>0.65398335315100997</v>
       </c>
       <c r="N16">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D16)</f>
-        <v>3.2727272727273</v>
+        <v>-2.3330651649236001</v>
       </c>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45256</v>
+        <v>45272</v>
       </c>
       <c r="E17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D17)</f>
-        <v>0</v>
+        <v>-1.1776251226693</v>
       </c>
       <c r="F17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D17)</f>
-        <v>0</v>
+        <v>-2.7353582815909001</v>
       </c>
       <c r="G17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D17)</f>
-        <v>0</v>
+        <v>-0.50323508267434003</v>
       </c>
       <c r="H17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D17)</f>
-        <v>0</v>
+        <v>0.90270812437311998</v>
       </c>
       <c r="I17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D17)</f>
-        <v>0</v>
+        <v>0.67114093959732002</v>
       </c>
       <c r="J17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D17)</f>
-        <v>0</v>
+        <v>0.90579710144929004</v>
       </c>
       <c r="K17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D17)</f>
-        <v>0</v>
+        <v>1.0638297872341</v>
       </c>
       <c r="L17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D17)</f>
-        <v>0</v>
+        <v>-0.21231422505309</v>
       </c>
       <c r="M17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D17)</f>
-        <v>0</v>
+        <v>2.3737066342056998</v>
       </c>
       <c r="N17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D17)</f>
-        <v>0</v>
+        <v>0.16116035455277999</v>
       </c>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45255</v>
+        <v>45271</v>
       </c>
       <c r="E18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D18)</f>
-        <v>0</v>
+        <v>-1.9249278152069</v>
       </c>
       <c r="F18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D18)</f>
-        <v>0</v>
+        <v>-0.56732854997495996</v>
       </c>
       <c r="G18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D18)</f>
-        <v>0</v>
+        <v>-0.46511627906976</v>
       </c>
       <c r="H18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D18)</f>
-        <v>0</v>
+        <v>2.9958677685951001</v>
       </c>
       <c r="I18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D18)</f>
@@ -1355,321 +1355,321 @@
       </c>
       <c r="J18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D18)</f>
-        <v>0</v>
+        <v>0.54644808743168005</v>
       </c>
       <c r="K18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D18)</f>
-        <v>0</v>
+        <v>-0.35335689045937002</v>
       </c>
       <c r="L18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D18)</f>
-        <v>0</v>
+        <v>3.2140248356465002</v>
       </c>
       <c r="M18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D18)</f>
-        <v>0</v>
+        <v>2.4953212726138001</v>
       </c>
       <c r="N18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D18)</f>
-        <v>0</v>
+        <v>1.3888888888888999</v>
       </c>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45254</v>
+        <v>45270</v>
       </c>
       <c r="E19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D19)</f>
-        <v>-1.8187619655392</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D19)</f>
-        <v>6.0413354531002001</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D19)</f>
-        <v>-3.8108824128796002</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D19)</f>
-        <v>-4.6584546472564003</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D19)</f>
-        <v>-6.4678980816060001</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D19)</f>
-        <v>29.912390488109999</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D19)</f>
-        <v>-0.33109619686801001</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D19)</f>
-        <v>-5.3484602917341997</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D19)</f>
-        <v>-3.2023620258914001</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D19)</f>
-        <v>-1.524452629425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45253</v>
+        <v>45269</v>
       </c>
       <c r="E20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D20)</f>
-        <v>-1.1044493531082</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D20)</f>
-        <v>-3.3051498847040999</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D20)</f>
-        <v>0.80115036976170995</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D20)</f>
-        <v>2.7617951668584002</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D20)</f>
-        <v>0.71180763249192003</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D20)</f>
-        <v>2.5673940949935998</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D20)</f>
-        <v>2.1014161717678999</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D20)</f>
-        <v>1.3136288998357999</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D20)</f>
-        <v>2.0393974507531998</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D20)</f>
-        <v>0.47286184210526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D21" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45252</v>
+        <v>45268</v>
       </c>
       <c r="E21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D21)</f>
-        <v>-2.4923076923076999</v>
+        <v>0.19286403085826001</v>
       </c>
       <c r="F21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D21)</f>
-        <v>11.482433590403</v>
+        <v>-0.86021505376344998</v>
       </c>
       <c r="G21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D21)</f>
-        <v>-5.9959447716519998</v>
+        <v>0.79336458708978996</v>
       </c>
       <c r="H21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D21)</f>
-        <v>-6.1149524632671</v>
+        <v>-0.81967213114754001</v>
       </c>
       <c r="I21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D21)</f>
-        <v>-5.8193904568757002</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D21)</f>
-        <v>15.06646971935</v>
+        <v>-1.9642857142857</v>
       </c>
       <c r="K21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D21)</f>
-        <v>-3.4023211685274002</v>
+        <v>-0.70175438596491002</v>
       </c>
       <c r="L21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D21)</f>
-        <v>-1.3285806869734</v>
+        <v>-0.72516316171137996</v>
       </c>
       <c r="M21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D21)</f>
-        <v>-2.242863615768</v>
+        <v>-1.8971848225214001</v>
       </c>
       <c r="N21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D21)</f>
-        <v>-1.0477062353779001</v>
+        <v>1.1570247933883999</v>
       </c>
     </row>
     <row r="22" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D22" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45251</v>
+        <v>45267</v>
       </c>
       <c r="E22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D22)</f>
-        <v>-1.0654490106545</v>
+        <v>-0.47984644913628</v>
       </c>
       <c r="F22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D22)</f>
-        <v>3.5492457852706001</v>
+        <v>-2.0259319286872</v>
       </c>
       <c r="G22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D22)</f>
-        <v>1.1919882755252</v>
+        <v>-0.92890317970702996</v>
       </c>
       <c r="H22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D22)</f>
-        <v>-2.0321761219306</v>
+        <v>-0.10235414534288</v>
       </c>
       <c r="I22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D22)</f>
-        <v>1.1914262911869</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D22)</f>
-        <v>9.9025974025974008</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D22)</f>
-        <v>1.1877651261441999</v>
+        <v>0.35211267605634999</v>
       </c>
       <c r="L22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D22)</f>
-        <v>-3.9227895392279</v>
+        <v>-0.21707670043416</v>
       </c>
       <c r="M22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D22)</f>
-        <v>6.8011788710045998E-2</v>
+        <v>-1.0895883777240001</v>
       </c>
       <c r="N22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D22)</f>
-        <v>-1.5620306398318</v>
+        <v>-2.0242914979757001</v>
       </c>
     </row>
     <row r="23" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D23" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45250</v>
+        <v>45266</v>
       </c>
       <c r="E23">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D23)</f>
-        <v>1.8920595533499001</v>
+        <v>2.5590551181102001</v>
       </c>
       <c r="F23">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D23)</f>
-        <v>2.4545454545454999</v>
+        <v>3.2808838299296998</v>
       </c>
       <c r="G23">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D23)</f>
-        <v>-3.0684723932190998</v>
+        <v>2.9801324503311002</v>
       </c>
       <c r="H23">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D23)</f>
-        <v>0.87550715353407005</v>
+        <v>0.30800821355234997</v>
       </c>
       <c r="I23">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D23)</f>
-        <v>1.8107951247823</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D23)</f>
-        <v>4.4067796610169001</v>
+        <v>1.2658227848101</v>
       </c>
       <c r="K23">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D23)</f>
-        <v>-0.36481736886596</v>
+        <v>0.35335689045935997</v>
       </c>
       <c r="L23">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D23)</f>
-        <v>4.7619047619048001</v>
+        <v>-0.28860028860027997</v>
       </c>
       <c r="M23">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D23)</f>
-        <v>-1.9777777777778001</v>
+        <v>0.24271844660194</v>
       </c>
       <c r="N23">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D23)</f>
-        <v>0.80750984152620997</v>
+        <v>-0.56360708534621995</v>
       </c>
     </row>
     <row r="24" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D24" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45249</v>
+        <v>45265</v>
       </c>
       <c r="E24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D24)</f>
-        <v>0</v>
+        <v>-0.29440628066731001</v>
       </c>
       <c r="F24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D24)</f>
-        <v>0</v>
+        <v>-2.0334535913414</v>
       </c>
       <c r="G24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D24)</f>
-        <v>0</v>
+        <v>-2.545715310147</v>
       </c>
       <c r="H24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D24)</f>
-        <v>0</v>
+        <v>-2.4048096192384998</v>
       </c>
       <c r="I24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D24)</f>
-        <v>0</v>
+        <v>-0.66666666666666996</v>
       </c>
       <c r="J24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D24)</f>
-        <v>0</v>
+        <v>-2.1238938053097001</v>
       </c>
       <c r="K24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D24)</f>
-        <v>0</v>
+        <v>-2.4137931034482998</v>
       </c>
       <c r="L24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D24)</f>
-        <v>0</v>
+        <v>-1.9801980198019999</v>
       </c>
       <c r="M24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D24)</f>
-        <v>0</v>
+        <v>-2.4852071005916998</v>
       </c>
       <c r="N24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D24)</f>
-        <v>0</v>
+        <v>-2.8928850664582</v>
       </c>
     </row>
     <row r="25" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D25" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45248</v>
+        <v>45264</v>
       </c>
       <c r="E25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D25)</f>
-        <v>0</v>
+        <v>1.2922465208747</v>
       </c>
       <c r="F25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D25)</f>
-        <v>0</v>
+        <v>-1.5021805847198</v>
       </c>
       <c r="G25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D25)</f>
-        <v>0</v>
+        <v>0.50450450450451001</v>
       </c>
       <c r="H25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D25)</f>
-        <v>0</v>
+        <v>0.80808080808080995</v>
       </c>
       <c r="I25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D25)</f>
@@ -1677,15 +1677,15 @@
       </c>
       <c r="J25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D25)</f>
-        <v>0</v>
+        <v>1.6187050359712001</v>
       </c>
       <c r="K25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D25)</f>
-        <v>0</v>
+        <v>0.34602076124566999</v>
       </c>
       <c r="L25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D25)</f>
-        <v>0</v>
+        <v>1.2893982808022999</v>
       </c>
       <c r="M25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D25)</f>
@@ -1693,259 +1693,259 @@
       </c>
       <c r="N25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D25)</f>
-        <v>0</v>
+        <v>-1.6153846153846001</v>
       </c>
     </row>
     <row r="26" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D26" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45247</v>
+        <v>45263</v>
       </c>
       <c r="E26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D26)</f>
-        <v>9.5108695652173996</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D26)</f>
-        <v>0.18214936247722999</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D26)</f>
-        <v>5.5477808876449002</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D26)</f>
-        <v>12.925006028454</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D26)</f>
-        <v>3.408954507262</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D26)</f>
-        <v>0.16977928692701</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D26)</f>
-        <v>0.23188405797101999</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D26)</f>
-        <v>0.75583305948077995</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D26)</f>
-        <v>1.2145748987853999</v>
+        <v>0</v>
       </c>
       <c r="N26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D26)</f>
-        <v>8.0816244065054998E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D27" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45246</v>
+        <v>45262</v>
       </c>
       <c r="E27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D27)</f>
-        <v>-2.4519549370444</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D27)</f>
-        <v>-2.8318584070795998</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D27)</f>
-        <v>-3.8076923076922999</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D27)</f>
-        <v>-2.8578121339892002</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D27)</f>
-        <v>-3.9820203999307999</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D27)</f>
-        <v>-2.1594684385381999</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D27)</f>
-        <v>-1.0152284263958999</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D27)</f>
-        <v>-0.78252363873493003</v>
+        <v>0</v>
       </c>
       <c r="M27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D27)</f>
-        <v>-1.4409221902017</v>
+        <v>0</v>
       </c>
       <c r="N27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D27)</f>
-        <v>-1.6003976143141001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D28" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45245</v>
+        <v>45261</v>
       </c>
       <c r="E28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D28)</f>
-        <v>4.2487046632123997</v>
+        <v>0.70070070070070001</v>
       </c>
       <c r="F28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D28)</f>
-        <v>0.62333036509350004</v>
+        <v>-1.8080888183981001</v>
       </c>
       <c r="G28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D28)</f>
-        <v>-0.96181316065137001</v>
+        <v>-0.78655702538434003</v>
       </c>
       <c r="H28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D28)</f>
-        <v>-3.109396277803</v>
+        <v>1.123595505618</v>
       </c>
       <c r="I28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D28)</f>
-        <v>-0.80032012805121999</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D28)</f>
-        <v>0.66889632107022001</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D28)</f>
-        <v>-1.294004879749</v>
+        <v>0.34722222222222998</v>
       </c>
       <c r="L28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D28)</f>
-        <v>0.39279869067103002</v>
+        <v>1.0130246020261</v>
       </c>
       <c r="M28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D28)</f>
-        <v>-1.1612620508325999</v>
+        <v>-0.41249263406011</v>
       </c>
       <c r="N28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D28)</f>
-        <v>-1.5944439010075</v>
+        <v>-1.1406844106464</v>
       </c>
     </row>
     <row r="29" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D29" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45244</v>
+        <v>45260</v>
       </c>
       <c r="E29">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D29)</f>
-        <v>0.20768431983385</v>
+        <v>0.40201005025127001</v>
       </c>
       <c r="F29">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D29)</f>
-        <v>0.44722719141324002</v>
+        <v>-1.6227180527383001</v>
       </c>
       <c r="G29">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D29)</f>
-        <v>0.10486177311725001</v>
+        <v>-7.1454090746693996E-2</v>
       </c>
       <c r="H29">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D29)</f>
-        <v>1.8728323699422</v>
+        <v>-0.10204081632655</v>
       </c>
       <c r="I29">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D29)</f>
-        <v>-1.6197064282099001</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D29)</f>
-        <v>1.7006802721089</v>
+        <v>-1.0676156583630001</v>
       </c>
       <c r="K29">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D29)</f>
-        <v>-3.9424123210848001</v>
+        <v>-0.68965517241379004</v>
       </c>
       <c r="L29">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D29)</f>
-        <v>0.85836909871245004</v>
+        <v>-0.43227665706051999</v>
       </c>
       <c r="M29">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D29)</f>
-        <v>1.1973392461197001</v>
+        <v>-1.0495626822157</v>
       </c>
       <c r="N29">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D29)</f>
-        <v>0.22549019607844001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45243</v>
+        <v>45259</v>
       </c>
       <c r="E30">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D30)</f>
-        <v>-0.55077452667813998</v>
+        <v>-0.89641434262948005</v>
       </c>
       <c r="F30">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D30)</f>
-        <v>0.26905829596412001</v>
+        <v>-1.3544712944435999</v>
       </c>
       <c r="G30">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D30)</f>
-        <v>3.3090407721094999</v>
+        <v>0.32258064516128998</v>
       </c>
       <c r="H30">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D30)</f>
-        <v>1.5258215962441</v>
+        <v>1.1351909184727</v>
       </c>
       <c r="I30">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D30)</f>
-        <v>-1.9249862107005</v>
+        <v>-0.66225165562914001</v>
       </c>
       <c r="J30">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D30)</f>
-        <v>-0.84317032040471995</v>
+        <v>0.71684587813620004</v>
       </c>
       <c r="K30">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D30)</f>
-        <v>1.8499573742541</v>
+        <v>-1.3605442176871001</v>
       </c>
       <c r="L30">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D30)</f>
-        <v>-3.3003300330038003E-2</v>
+        <v>0.72568940493470002</v>
       </c>
       <c r="M30">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D30)</f>
-        <v>0.17769880053309001</v>
+        <v>0.52754982415006002</v>
       </c>
       <c r="N30">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D30)</f>
-        <v>3.8908127928295002</v>
+        <v>-1.7923823749065999</v>
       </c>
     </row>
     <row r="31" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D31" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45242</v>
+        <v>45258</v>
       </c>
       <c r="E31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D31)</f>
-        <v>0</v>
+        <v>-0.39682539682541002</v>
       </c>
       <c r="F31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D31)</f>
-        <v>0</v>
+        <v>0.51051980198019997</v>
       </c>
       <c r="G31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D31)</f>
-        <v>0</v>
+        <v>0.17953321364451</v>
       </c>
       <c r="H31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D31)</f>
-        <v>0</v>
+        <v>0.10330578512396001</v>
       </c>
       <c r="I31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D31)</f>
@@ -1953,45 +1953,45 @@
       </c>
       <c r="J31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D31)</f>
-        <v>0</v>
+        <v>-0.17889087656529001</v>
       </c>
       <c r="K31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D31)</f>
-        <v>0</v>
+        <v>0.34129692832764003</v>
       </c>
       <c r="L31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D31)</f>
-        <v>0</v>
+        <v>-0.7919366450684</v>
       </c>
       <c r="M31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D31)</f>
-        <v>0</v>
+        <v>1.6686531585219999</v>
       </c>
       <c r="N31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D31)</f>
-        <v>0</v>
+        <v>0.67669172932331001</v>
       </c>
     </row>
     <row r="32" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D32" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45241</v>
+        <v>45257</v>
       </c>
       <c r="E32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D32)</f>
-        <v>0</v>
+        <v>-0.98231827111984005</v>
       </c>
       <c r="F32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D32)</f>
-        <v>0</v>
+        <v>-2.8262176788936002</v>
       </c>
       <c r="G32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D32)</f>
-        <v>0</v>
+        <v>-0.3934191702432</v>
       </c>
       <c r="H32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D32)</f>
-        <v>0</v>
+        <v>1.6806722689075999</v>
       </c>
       <c r="I32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D32)</f>
@@ -1999,79 +1999,79 @@
       </c>
       <c r="J32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D32)</f>
-        <v>0</v>
+        <v>1.0849909584087001</v>
       </c>
       <c r="K32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D32)</f>
-        <v>0</v>
+        <v>-0.67796610169492</v>
       </c>
       <c r="L32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D32)</f>
-        <v>0</v>
+        <v>1.9075568598679</v>
       </c>
       <c r="M32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D32)</f>
-        <v>0</v>
+        <v>-0.29708853238263</v>
       </c>
       <c r="N32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D32)</f>
-        <v>0</v>
+        <v>0.52910052910052996</v>
       </c>
     </row>
     <row r="33" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D33" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45240</v>
+        <v>45256</v>
       </c>
       <c r="E33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D33)</f>
-        <v>-1.6920473773266</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D33)</f>
-        <v>-0.35746201966039998</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D33)</f>
-        <v>0.54460837706705001</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D33)</f>
-        <v>2.8737020043468</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D33)</f>
-        <v>1.1154489682097</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D33)</f>
-        <v>-0.16835016835017999</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D33)</f>
-        <v>0.10667804565819999</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D33)</f>
-        <v>0.13218770654329001</v>
+        <v>0</v>
       </c>
       <c r="M33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D33)</f>
-        <v>8.8928412627848993E-2</v>
+        <v>0</v>
       </c>
       <c r="N33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D33)</f>
-        <v>-0.89835469869787998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D34" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45239</v>
+        <v>45255</v>
       </c>
       <c r="E34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D34)</f>
-        <v>-2.6679841897232999</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D34)</f>
@@ -2079,249 +2079,249 @@
       </c>
       <c r="G34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D34)</f>
-        <v>4.4904293843765997</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D34)</f>
-        <v>0.38787878787878</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D34)</f>
-        <v>1.1508518560306999</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D34)</f>
-        <v>1.5384615384616001</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D34)</f>
-        <v>0.18810653670215</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D34)</f>
-        <v>-0.75434568711051997</v>
+        <v>0</v>
       </c>
       <c r="M34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D34)</f>
-        <v>-3.0603448275862002</v>
+        <v>0</v>
       </c>
       <c r="N34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D34)</f>
-        <v>-1.0783824263605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D35" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45238</v>
+        <v>45254</v>
       </c>
       <c r="E35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D35)</f>
-        <v>0.72992700729926996</v>
+        <v>-2.2094140249760001</v>
       </c>
       <c r="F35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D35)</f>
-        <v>3.6111111111111001</v>
+        <v>-2.5776215582894002</v>
       </c>
       <c r="G35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D35)</f>
-        <v>-2.5705645161290001</v>
+        <v>-1.2363122571528999</v>
       </c>
       <c r="H35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D35)</f>
-        <v>4.1403685937894004</v>
+        <v>0.74074074074074003</v>
       </c>
       <c r="I35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D35)</f>
-        <v>0.99709418266765004</v>
+        <v>0.66666666666666996</v>
       </c>
       <c r="J35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D35)</f>
-        <v>2.6315789473683999</v>
+        <v>-0.53956834532372999</v>
       </c>
       <c r="K35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D35)</f>
-        <v>0.82327586206895997</v>
+        <v>-0.67340067340067</v>
       </c>
       <c r="L35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D35)</f>
-        <v>1.3967409378118001</v>
+        <v>0.73909830007391997</v>
       </c>
       <c r="M35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D35)</f>
-        <v>-1.2975962561157</v>
+        <v>-2.0942408376963999</v>
       </c>
       <c r="N35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D35)</f>
-        <v>-1.3786312161497001</v>
+        <v>-0.89887640449438</v>
       </c>
     </row>
     <row r="36" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D36" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45237</v>
+        <v>45253</v>
       </c>
       <c r="E36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D36)</f>
-        <v>3.7521514629947998</v>
+        <v>0.87209302325580995</v>
       </c>
       <c r="F36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D36)</f>
-        <v>0.27855153203344002</v>
+        <v>-1.0578177075785999</v>
       </c>
       <c r="G36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D36)</f>
-        <v>8.5101728287027001</v>
+        <v>0.71149057274991001</v>
       </c>
       <c r="H36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D36)</f>
-        <v>19.993941229930002</v>
+        <v>1.2861736334405001</v>
       </c>
       <c r="I36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D36)</f>
-        <v>9.0124223602484008</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D36)</f>
-        <v>-0.34965034965033998</v>
+        <v>0.90744101633394003</v>
       </c>
       <c r="K36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D36)</f>
-        <v>-3.7703762080551</v>
+        <v>1.0204081632652999</v>
       </c>
       <c r="L36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D36)</f>
-        <v>0.77077747989276002</v>
+        <v>0.97014925373133998</v>
       </c>
       <c r="M36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D36)</f>
-        <v>-1.7349498327759001</v>
+        <v>1.4159292035397999</v>
       </c>
       <c r="N36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D36)</f>
-        <v>-1.4077669902912999</v>
+        <v>-0.14958863126402</v>
       </c>
     </row>
     <row r="37" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D37" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45236</v>
+        <v>45252</v>
       </c>
       <c r="E37">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D37)</f>
-        <v>10.288534548216001</v>
+        <v>-1.9011406844106</v>
       </c>
       <c r="F37">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D37)</f>
-        <v>4.8685491723465999</v>
+        <v>-3.0758426966291998</v>
       </c>
       <c r="G37">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D37)</f>
-        <v>3.1246474901296999</v>
+        <v>-1.7132867132867</v>
       </c>
       <c r="H37">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D37)</f>
-        <v>3.15625</v>
+        <v>-0.53304904051172997</v>
       </c>
       <c r="I37">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D37)</f>
-        <v>4.0051679586563003</v>
+        <v>-0.66225165562914001</v>
       </c>
       <c r="J37">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D37)</f>
-        <v>0.70422535211268</v>
+        <v>-1.6071428571429001</v>
       </c>
       <c r="K37">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D37)</f>
-        <v>4.1425485961122996</v>
+        <v>-1.010101010101</v>
       </c>
       <c r="L37">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D37)</f>
-        <v>4.408677396781</v>
+        <v>-0.59347181008901995</v>
       </c>
       <c r="M37">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D37)</f>
-        <v>1.7872340425532001</v>
+        <v>-1.3387660069848999</v>
       </c>
       <c r="N37">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D37)</f>
-        <v>0.12637309225234999</v>
+        <v>-0.81602373887240998</v>
       </c>
     </row>
     <row r="38" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D38" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45235</v>
+        <v>45251</v>
       </c>
       <c r="E38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D38)</f>
-        <v>0</v>
+        <v>-0.47303689687796002</v>
       </c>
       <c r="F38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D38)</f>
-        <v>0</v>
+        <v>-2.3855223471346001</v>
       </c>
       <c r="G38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D38)</f>
-        <v>0</v>
+        <v>-1.1406844106464</v>
       </c>
       <c r="H38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D38)</f>
-        <v>0</v>
+        <v>0.21367521367523001</v>
       </c>
       <c r="I38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D38)</f>
-        <v>0</v>
+        <v>0.66666666666666996</v>
       </c>
       <c r="J38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D38)</f>
-        <v>0</v>
+        <v>0.53859964093356005</v>
       </c>
       <c r="K38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D38)</f>
-        <v>0</v>
+        <v>0.33783783783784999</v>
       </c>
       <c r="L38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D38)</f>
-        <v>0</v>
+        <v>0.14858841010401</v>
       </c>
       <c r="M38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D38)</f>
-        <v>0</v>
+        <v>-1.1507479861909999</v>
       </c>
       <c r="N38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D38)</f>
-        <v>0</v>
+        <v>-0.36954915003694999</v>
       </c>
     </row>
     <row r="39" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D39" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45234</v>
+        <v>45250</v>
       </c>
       <c r="E39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D39)</f>
-        <v>0</v>
+        <v>-0.47080979284368002</v>
       </c>
       <c r="F39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D39)</f>
-        <v>0</v>
+        <v>0.1235415236788</v>
       </c>
       <c r="G39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D39)</f>
-        <v>0</v>
+        <v>0.41652204095799999</v>
       </c>
       <c r="H39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D39)</f>
-        <v>0</v>
+        <v>-0.95238095238095</v>
       </c>
       <c r="I39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D39)</f>
-        <v>0</v>
+        <v>0.67114093959732002</v>
       </c>
       <c r="J39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D39)</f>
-        <v>0</v>
+        <v>0.36036036036037</v>
       </c>
       <c r="K39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D39)</f>
@@ -2329,267 +2329,267 @@
       </c>
       <c r="L39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D39)</f>
-        <v>0</v>
+        <v>0.14880952380953</v>
       </c>
       <c r="M39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D39)</f>
-        <v>0</v>
+        <v>-0.62893081761005998</v>
       </c>
       <c r="N39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D39)</f>
-        <v>0</v>
+        <v>-7.3855243722302996E-2</v>
       </c>
     </row>
     <row r="40" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D40" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45233</v>
+        <v>45249</v>
       </c>
       <c r="E40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D40)</f>
-        <v>3.7979491074825997E-2</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D40)</f>
-        <v>1.2820512820512999</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D40)</f>
-        <v>3.1653671593157</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D40)</f>
-        <v>6.4537591483699002</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D40)</f>
-        <v>5.9620781709905</v>
+        <v>0</v>
       </c>
       <c r="J40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D40)</f>
-        <v>0.88809946714031995</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D40)</f>
-        <v>1.5350877192982</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D40)</f>
-        <v>4.0029112081514002</v>
+        <v>0</v>
       </c>
       <c r="M40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D40)</f>
-        <v>1.2931034482759001</v>
+        <v>0</v>
       </c>
       <c r="N40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D40)</f>
-        <v>1.3497536945813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D41" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45232</v>
+        <v>45248</v>
       </c>
       <c r="E41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D41)</f>
-        <v>-1.8269947800149</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D41)</f>
-        <v>-1.6488845780795001</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D41)</f>
-        <v>0.83313776108895998</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D41)</f>
-        <v>-2.0208604954367999</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D41)</f>
-        <v>-1.7882352941176001</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D41)</f>
-        <v>-0.35398230088496002</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D41)</f>
-        <v>-3.4225686208065</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D41)</f>
-        <v>-4.2174973858487004</v>
+        <v>0</v>
       </c>
       <c r="M41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D41)</f>
-        <v>-0.49324469225820999</v>
+        <v>0</v>
       </c>
       <c r="N41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D41)</f>
-        <v>-0.93695100527034003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D42" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45231</v>
+        <v>45247</v>
       </c>
       <c r="E42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D42)</f>
-        <v>-1.0332103321032999</v>
+        <v>9.4250706880300003E-2</v>
       </c>
       <c r="F42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D42)</f>
-        <v>0.29182879377433002</v>
+        <v>0.92823496813520001</v>
       </c>
       <c r="G42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D42)</f>
-        <v>-2.8831908831908999</v>
+        <v>-0.31141868512110998</v>
       </c>
       <c r="H42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D42)</f>
-        <v>-2.2307202039515999</v>
+        <v>1.3948497854077</v>
       </c>
       <c r="I42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D42)</f>
-        <v>-0.42840886270834</v>
+        <v>-0.66666666666666996</v>
       </c>
       <c r="J42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D42)</f>
-        <v>0.53380782918150005</v>
+        <v>1.4625228519196001</v>
       </c>
       <c r="K42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D42)</f>
-        <v>-1.4732273277409</v>
+        <v>0</v>
       </c>
       <c r="L42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D42)</f>
-        <v>-0.24339360222531001</v>
+        <v>-0.37064492216457001</v>
       </c>
       <c r="M42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D42)</f>
-        <v>-1.6452225268930001</v>
+        <v>0.11448196908987</v>
       </c>
       <c r="N42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D42)</f>
-        <v>-0.71705426356589996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D43" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45230</v>
+        <v>45246</v>
       </c>
       <c r="E43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D43)</f>
-        <v>-3.4556465977911999</v>
+        <v>-2.1217712177122001</v>
       </c>
       <c r="F43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D43)</f>
-        <v>-2.5592417061611998</v>
+        <v>-3.6572343833422001</v>
       </c>
       <c r="G43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D43)</f>
-        <v>-2.3046092184368998</v>
+        <v>-1.7341040462427999</v>
       </c>
       <c r="H43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D43)</f>
-        <v>-3.2675709001233</v>
+        <v>0.97508125677140001</v>
       </c>
       <c r="I43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D43)</f>
-        <v>-3.3011845426889002</v>
+        <v>0</v>
       </c>
       <c r="J43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D43)</f>
-        <v>-1.2302284710018001</v>
+        <v>-1.2635379061372001</v>
       </c>
       <c r="K43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D43)</f>
-        <v>-2.5777597072576</v>
+        <v>-1.6611295681063001</v>
       </c>
       <c r="L43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D43)</f>
-        <v>-0.96418732782368</v>
+        <v>-0.36927621861151</v>
       </c>
       <c r="M43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D43)</f>
-        <v>2.1097046413498001E-2</v>
+        <v>-0.73863636363637997</v>
       </c>
       <c r="N43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D43)</f>
-        <v>0.33054637371183998</v>
+        <v>-0.73313782991203003</v>
       </c>
     </row>
     <row r="44" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D44" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45229</v>
+        <v>45245</v>
       </c>
       <c r="E44">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D44)</f>
-        <v>-0.17780938833571</v>
+        <v>1.8796992481203001</v>
       </c>
       <c r="F44">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D44)</f>
-        <v>2.8265107212476002</v>
+        <v>2.0569404713254</v>
       </c>
       <c r="G44">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D44)</f>
-        <v>0.45856168213845999</v>
+        <v>0.99587912087912001</v>
       </c>
       <c r="H44">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D44)</f>
-        <v>9.2564023449555999E-2</v>
+        <v>0.98468271334792001</v>
       </c>
       <c r="I44">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D44)</f>
-        <v>2.9178602358271002</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D44)</f>
-        <v>1.0657193605684001</v>
+        <v>1.4652014652015</v>
       </c>
       <c r="K44">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D44)</f>
-        <v>3.5578947368420999</v>
+        <v>0.33333333333332998</v>
       </c>
       <c r="L44">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D44)</f>
-        <v>-0.41152263374485998</v>
+        <v>0.81906180193596001</v>
       </c>
       <c r="M44">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D44)</f>
-        <v>13.315802055941001</v>
+        <v>2.6239067055394001</v>
       </c>
       <c r="N44">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D44)</f>
-        <v>2.7983210073956002</v>
+        <v>0.44182621502209002</v>
       </c>
     </row>
     <row r="45" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D45" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45228</v>
+        <v>45244</v>
       </c>
       <c r="E45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D45)</f>
-        <v>0</v>
+        <v>-0.18761726078798999</v>
       </c>
       <c r="F45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D45)</f>
-        <v>0</v>
+        <v>-1.3041140091422001</v>
       </c>
       <c r="G45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D45)</f>
-        <v>0</v>
+        <v>6.8728522336768003E-2</v>
       </c>
       <c r="H45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D45)</f>
-        <v>0</v>
+        <v>-1.6146393972013</v>
       </c>
       <c r="I45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D45)</f>
@@ -2597,37 +2597,37 @@
       </c>
       <c r="J45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D45)</f>
-        <v>0</v>
+        <v>0.36764705882352</v>
       </c>
       <c r="K45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D45)</f>
-        <v>0</v>
+        <v>0.33444816053511001</v>
       </c>
       <c r="L45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D45)</f>
-        <v>0</v>
+        <v>-1.0316875460574999</v>
       </c>
       <c r="M45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D45)</f>
-        <v>0</v>
+        <v>-0.98152424942264005</v>
       </c>
       <c r="N45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D45)</f>
-        <v>0</v>
+        <v>0.14749262536873001</v>
       </c>
     </row>
     <row r="46" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D46" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45227</v>
+        <v>45243</v>
       </c>
       <c r="E46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D46)</f>
-        <v>0</v>
+        <v>-0.46685340802989</v>
       </c>
       <c r="F46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D46)</f>
-        <v>0</v>
+        <v>0.59507708953204996</v>
       </c>
       <c r="G46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D46)</f>
@@ -2635,19 +2635,19 @@
       </c>
       <c r="H46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D46)</f>
-        <v>0</v>
+        <v>0.32397408207342998</v>
       </c>
       <c r="I46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D46)</f>
-        <v>0</v>
+        <v>0.67114093959732002</v>
       </c>
       <c r="J46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D46)</f>
-        <v>0</v>
+        <v>1.1152416356877</v>
       </c>
       <c r="K46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D46)</f>
-        <v>0</v>
+        <v>1.3559322033898</v>
       </c>
       <c r="L46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D46)</f>
@@ -2655,263 +2655,263 @@
       </c>
       <c r="M46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D46)</f>
-        <v>0</v>
+        <v>5.4811205846529001</v>
       </c>
       <c r="N46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D46)</f>
-        <v>0</v>
+        <v>-0.36737692872887001</v>
       </c>
     </row>
     <row r="47" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D47" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45226</v>
+        <v>45242</v>
       </c>
       <c r="E47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D47)</f>
-        <v>3.5346097201767002</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D47)</f>
-        <v>3.1155778894471999</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D47)</f>
-        <v>-0.54505005561735997</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D47)</f>
-        <v>-0.88685015290521996</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D47)</f>
-        <v>0.88037634408601995</v>
+        <v>0</v>
       </c>
       <c r="J47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D47)</f>
-        <v>0.71556350626118004</v>
+        <v>0</v>
       </c>
       <c r="K47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D47)</f>
-        <v>3.1532314107018999</v>
+        <v>0</v>
       </c>
       <c r="L47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D47)</f>
-        <v>6.8131868131867996</v>
+        <v>0</v>
       </c>
       <c r="M47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D47)</f>
-        <v>6.8727644353602004</v>
+        <v>0</v>
       </c>
       <c r="N47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D47)</f>
-        <v>1.7283448556323999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D48" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45225</v>
+        <v>45241</v>
       </c>
       <c r="E48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D48)</f>
-        <v>0.18443378827001</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D48)</f>
-        <v>0.20140986908358</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D48)</f>
-        <v>2.1474832405408</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D48)</f>
-        <v>1.3639181649101</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D48)</f>
-        <v>-0.73382254836557004</v>
+        <v>0</v>
       </c>
       <c r="J48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D48)</f>
-        <v>0.72072072072072002</v>
+        <v>0</v>
       </c>
       <c r="K48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D48)</f>
-        <v>1.3781867817357001</v>
+        <v>0</v>
       </c>
       <c r="L48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D48)</f>
-        <v>-5.5363321799307998</v>
+        <v>0</v>
       </c>
       <c r="M48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D48)</f>
-        <v>2.5555839509323001E-2</v>
+        <v>0</v>
       </c>
       <c r="N48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D48)</f>
-        <v>1.7798013245033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D49" s="6">
         <f t="shared" ref="D49" ca="1" si="1">D48-1</f>
-        <v>45224</v>
+        <v>45240</v>
       </c>
       <c r="E49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D49)</f>
-        <v>-3.1439799928546002</v>
+        <v>-0.18639328984156001</v>
       </c>
       <c r="F49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D49)</f>
-        <v>-0.20100502512561999</v>
+        <v>-1.4790139906729001</v>
       </c>
       <c r="G49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D49)</f>
-        <v>-8.1315240083507003</v>
+        <v>0.17211703958692001</v>
       </c>
       <c r="H49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D49)</f>
-        <v>-5.0058892815076996</v>
+        <v>2.2075055187638002</v>
       </c>
       <c r="I49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D49)</f>
-        <v>-6.2539086929331003</v>
+        <v>-0.66666666666666996</v>
       </c>
       <c r="J49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D49)</f>
-        <v>0.90909090909090995</v>
+        <v>-0.55452865064695001</v>
       </c>
       <c r="K49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D49)</f>
-        <v>-0.25035137034434002</v>
+        <v>-1.0067114093959999</v>
       </c>
       <c r="L49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D49)</f>
-        <v>-1.6672337529771999</v>
+        <v>0</v>
       </c>
       <c r="M49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D49)</f>
-        <v>-0.96178182738546003</v>
+        <v>0.67443286327408003</v>
       </c>
       <c r="N49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D49)</f>
-        <v>1.4486668066345001</v>
+        <v>-0.94614264919942004</v>
       </c>
     </row>
     <row r="50" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D50" s="6">
         <f t="shared" ref="D50" ca="1" si="2">D49-1</f>
-        <v>45223</v>
+        <v>45239</v>
       </c>
       <c r="E50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D50)</f>
-        <v>1.0469314079422001</v>
+        <v>9.3283582089549996E-2</v>
       </c>
       <c r="F50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D50)</f>
-        <v>2.051282051282</v>
+        <v>0.25380710659897998</v>
       </c>
       <c r="G50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D50)</f>
-        <v>-0.31217481789801999</v>
+        <v>-0.75162282200205</v>
       </c>
       <c r="H50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D50)</f>
-        <v>1.6462137084705</v>
+        <v>2.6047565118913001</v>
       </c>
       <c r="I50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D50)</f>
-        <v>3.1612903225806002</v>
+        <v>0</v>
       </c>
       <c r="J50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D50)</f>
-        <v>1.1029411764706001</v>
+        <v>0</v>
       </c>
       <c r="K50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D50)</f>
-        <v>-1.2234273318872</v>
+        <v>0</v>
       </c>
       <c r="L50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D50)</f>
-        <v>6.1010830324910001</v>
+        <v>2.6475037821482998</v>
       </c>
       <c r="M50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D50)</f>
-        <v>4.2480211081794002</v>
+        <v>0.55487053020961996</v>
       </c>
       <c r="N50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D50)</f>
-        <v>-0.63627829352248</v>
+        <v>1.4771048744460999</v>
       </c>
     </row>
     <row r="51" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D51" s="6">
         <f t="shared" ref="D51" ca="1" si="3">D50-1</f>
-        <v>45222</v>
+        <v>45238</v>
       </c>
       <c r="E51">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D51)</f>
-        <v>-3.2821229050278999</v>
+        <v>-0.64874884151990997</v>
       </c>
       <c r="F51">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D51)</f>
-        <v>-2.3046092184368998</v>
+        <v>0.55070517125587004</v>
       </c>
       <c r="G51">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D51)</f>
-        <v>2.1579674710322001</v>
+        <v>-1.4478114478113999</v>
       </c>
       <c r="H51">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D51)</f>
-        <v>-8.6159737417942992</v>
+        <v>-1.3407821229050001</v>
       </c>
       <c r="I51">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D51)</f>
-        <v>-5.4993293500793001</v>
+        <v>-0.66225165562914001</v>
       </c>
       <c r="J51">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D51)</f>
-        <v>-1.2704174228675</v>
+        <v>-1.4571948998179001</v>
       </c>
       <c r="K51">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D51)</f>
-        <v>-7.3698356960154005E-2</v>
+        <v>-1.6501650165016</v>
       </c>
       <c r="L51">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D51)</f>
-        <v>-3.4170153417015001</v>
+        <v>-0.67618332081141996</v>
       </c>
       <c r="M51">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D51)</f>
-        <v>-5.4155228350386997</v>
+        <v>-0.67360685854255997</v>
       </c>
       <c r="N51">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D51)</f>
-        <v>-3.5804083274665999</v>
+        <v>-0.44117647058824</v>
       </c>
     </row>
     <row r="52" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D52" s="6">
         <f t="shared" ref="D52" ca="1" si="4">D51-1</f>
-        <v>45221</v>
+        <v>45237</v>
       </c>
       <c r="E52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D52)</f>
-        <v>0</v>
+        <v>-1.1904761904762</v>
       </c>
       <c r="F52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D52)</f>
-        <v>0</v>
+        <v>0.49946004319655002</v>
       </c>
       <c r="G52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D52)</f>
-        <v>0</v>
+        <v>0.13486176668913999</v>
       </c>
       <c r="H52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D52)</f>
-        <v>0</v>
+        <v>-0.22296544035676</v>
       </c>
       <c r="I52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D52)</f>
@@ -2919,45 +2919,45 @@
       </c>
       <c r="J52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D52)</f>
-        <v>0</v>
+        <v>-0.36297640653357</v>
       </c>
       <c r="K52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D52)</f>
-        <v>0</v>
+        <v>-1.3029315960912</v>
       </c>
       <c r="L52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D52)</f>
-        <v>0</v>
+        <v>-7.5075075075072994E-2</v>
       </c>
       <c r="M52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D52)</f>
-        <v>0</v>
+        <v>-1.8629807692308</v>
       </c>
       <c r="N52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D52)</f>
-        <v>0</v>
+        <v>-1.6630513376717</v>
       </c>
     </row>
     <row r="53" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D53" s="6">
         <f t="shared" ref="D53" ca="1" si="5">D52-1</f>
-        <v>45220</v>
+        <v>45236</v>
       </c>
       <c r="E53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D53)</f>
-        <v>0</v>
+        <v>1.7707362534949</v>
       </c>
       <c r="F53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D53)</f>
-        <v>0</v>
+        <v>4.9143180852570003</v>
       </c>
       <c r="G53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D53)</f>
-        <v>0</v>
+        <v>-0.46979865771812002</v>
       </c>
       <c r="H53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D53)</f>
-        <v>0</v>
+        <v>-1.1025358324145</v>
       </c>
       <c r="I53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D53)</f>
@@ -2965,575 +2965,575 @@
       </c>
       <c r="J53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D53)</f>
-        <v>0</v>
+        <v>0.54744525547444001</v>
       </c>
       <c r="K53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D53)</f>
-        <v>0</v>
+        <v>0.32679738562090999</v>
       </c>
       <c r="L53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D53)</f>
-        <v>0</v>
+        <v>-0.14992503748125999</v>
       </c>
       <c r="M53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D53)</f>
-        <v>0</v>
+        <v>4.3260188087774001</v>
       </c>
       <c r="N53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D53)</f>
-        <v>0</v>
+        <v>0.72833211944647003</v>
       </c>
     </row>
     <row r="54" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D54" s="6">
         <f t="shared" ref="D54:D65" ca="1" si="6">D53-1</f>
-        <v>45219</v>
+        <v>45235</v>
       </c>
       <c r="E54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D54)</f>
-        <v>-0.76230076230076005</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D54)</f>
-        <v>0.30150753768845001</v>
+        <v>0</v>
       </c>
       <c r="G54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D54)</f>
-        <v>-0.60228233305156997</v>
+        <v>0</v>
       </c>
       <c r="H54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D54)</f>
-        <v>-4.0923399790135999</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D54)</f>
-        <v>-7.5526998083643004</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D54)</f>
-        <v>0.91575091575091006</v>
+        <v>0</v>
       </c>
       <c r="K54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D54)</f>
-        <v>-1.2373694125707</v>
+        <v>0</v>
       </c>
       <c r="L54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D54)</f>
-        <v>-3.2388663967611002</v>
+        <v>0</v>
       </c>
       <c r="M54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D54)</f>
-        <v>-3.1891761294998999</v>
+        <v>0</v>
       </c>
       <c r="N54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D54)</f>
-        <v>-2.6818048350788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D55" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45218</v>
+        <v>45234</v>
       </c>
       <c r="E55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D55)</f>
-        <v>-0.48275862068966002</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D55)</f>
-        <v>-1.4851485148515</v>
+        <v>0</v>
       </c>
       <c r="G55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D55)</f>
-        <v>-2.8835300153925001</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D55)</f>
-        <v>-2.7054619703931002</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D55)</f>
-        <v>2.5608416671484</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D55)</f>
-        <v>-0.18281535648993999</v>
+        <v>0</v>
       </c>
       <c r="K55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D55)</f>
-        <v>-1.4390007173904</v>
+        <v>0</v>
       </c>
       <c r="L55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D55)</f>
-        <v>0.37250253979004</v>
+        <v>0</v>
       </c>
       <c r="M55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D55)</f>
-        <v>4.6523388116308997</v>
+        <v>0</v>
       </c>
       <c r="N55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D55)</f>
-        <v>-0.32195121951219002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D56" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45217</v>
+        <v>45233</v>
       </c>
       <c r="E56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D56)</f>
-        <v>-1.9607843137255001</v>
+        <v>0.37418147801684998</v>
       </c>
       <c r="F56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D56)</f>
-        <v>-1.2707722385142</v>
+        <v>6.3724013257005003</v>
       </c>
       <c r="G56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D56)</f>
-        <v>-3.0926809864756999</v>
+        <v>0.53981106612686003</v>
       </c>
       <c r="H56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D56)</f>
-        <v>-4.6018991964938003</v>
+        <v>0.44296788482836003</v>
       </c>
       <c r="I56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D56)</f>
-        <v>-3.1193996415770999</v>
+        <v>0</v>
       </c>
       <c r="J56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D56)</f>
-        <v>-0.90579710144926995</v>
+        <v>-0.36363636363635998</v>
       </c>
       <c r="K56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D56)</f>
-        <v>0.41101694915254</v>
+        <v>-0.64935064935065001</v>
       </c>
       <c r="L56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D56)</f>
-        <v>-2.0563847429519</v>
+        <v>0.52750565184626996</v>
       </c>
       <c r="M56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D56)</f>
-        <v>-3.0637254901961</v>
+        <v>0</v>
       </c>
       <c r="N56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D56)</f>
-        <v>-2.3902485477574</v>
+        <v>2.0059435364042</v>
       </c>
     </row>
     <row r="57" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D57" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45216</v>
+        <v>45232</v>
       </c>
       <c r="E57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D57)</f>
-        <v>-2.1178027796161998</v>
+        <v>-1.2927054478301001</v>
       </c>
       <c r="F57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D57)</f>
-        <v>-2.4785510009533001</v>
+        <v>-2.5113819944192</v>
       </c>
       <c r="G57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D57)</f>
-        <v>0.54994500549945002</v>
+        <v>-1.1670556852284</v>
       </c>
       <c r="H57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D57)</f>
-        <v>-0.31553398058253002</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D57)</f>
-        <v>1.4891440263725999</v>
+        <v>0</v>
       </c>
       <c r="J57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D57)</f>
-        <v>-0.89766606822262995</v>
+        <v>-1.0791366906475</v>
       </c>
       <c r="K57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D57)</f>
-        <v>-1.4613778705636999</v>
+        <v>-1.2820512820512999</v>
       </c>
       <c r="L57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D57)</f>
-        <v>-1.3093289689034</v>
+        <v>-0.52473763118440997</v>
       </c>
       <c r="M57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D57)</f>
-        <v>-0.87463556851311997</v>
+        <v>-2.3867809057528002</v>
       </c>
       <c r="N57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D57)</f>
-        <v>0.40156802753609</v>
+        <v>-0.59084194977841997</v>
       </c>
     </row>
     <row r="58" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D58" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45215</v>
+        <v>45231</v>
       </c>
       <c r="E58">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D58)</f>
-        <v>-2.2322872856681002</v>
+        <v>-0.55096418732783004</v>
       </c>
       <c r="F58">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D58)</f>
-        <v>-0.75685903500472995</v>
+        <v>-1.4901620370369999</v>
       </c>
       <c r="G58">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D58)</f>
-        <v>-2.3053628992869002</v>
+        <v>6.6733400066731993E-2</v>
       </c>
       <c r="H58">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D58)</f>
-        <v>-3.8954980172615001</v>
+        <v>-0.98684210526315996</v>
       </c>
       <c r="I58">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D58)</f>
-        <v>-2.8599823321555</v>
+        <v>0</v>
       </c>
       <c r="J58">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D58)</f>
-        <v>-0.53571428571427004</v>
+        <v>3.1539888682745998</v>
       </c>
       <c r="K58">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D58)</f>
-        <v>1.0591164184143</v>
+        <v>0.64516129032257996</v>
       </c>
       <c r="L58">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D58)</f>
-        <v>-3.3839342188488</v>
+        <v>-0.44776119402984998</v>
       </c>
       <c r="M58">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D58)</f>
-        <v>-3.6967711745437999</v>
+        <v>-0.24420024420024</v>
       </c>
       <c r="N58">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D58)</f>
-        <v>-1.2370160528801</v>
+        <v>-0.29455081001472999</v>
       </c>
     </row>
     <row r="59" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D59" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45214</v>
+        <v>45230</v>
       </c>
       <c r="E59">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D59)</f>
-        <v>0</v>
+        <v>-0.27472527472526997</v>
       </c>
       <c r="F59">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D59)</f>
-        <v>0</v>
+        <v>-4.2791857083506004</v>
       </c>
       <c r="G59">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D59)</f>
-        <v>0</v>
+        <v>1.3527223537369</v>
       </c>
       <c r="H59">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D59)</f>
-        <v>0</v>
+        <v>2.2421524663676999</v>
       </c>
       <c r="I59">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D59)</f>
-        <v>0</v>
+        <v>-0.65789473684210997</v>
       </c>
       <c r="J59">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D59)</f>
-        <v>0</v>
+        <v>2.0833333333333002</v>
       </c>
       <c r="K59">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D59)</f>
-        <v>0</v>
+        <v>0.32362459546925998</v>
       </c>
       <c r="L59">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D59)</f>
-        <v>0</v>
+        <v>0.37453183520599997</v>
       </c>
       <c r="M59">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D59)</f>
-        <v>0</v>
+        <v>-2.1505376344085998</v>
       </c>
       <c r="N59">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D59)</f>
-        <v>0</v>
+        <v>-0.43988269794722001</v>
       </c>
     </row>
     <row r="60" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D60" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45213</v>
+        <v>45229</v>
       </c>
       <c r="E60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D60)</f>
-        <v>0</v>
+        <v>-1.1764705882352999</v>
       </c>
       <c r="F60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D60)</f>
-        <v>0</v>
+        <v>-0.30374154355931998</v>
       </c>
       <c r="G60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D60)</f>
-        <v>0</v>
+        <v>6.7681895093060995E-2</v>
       </c>
       <c r="H60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D60)</f>
-        <v>0</v>
+        <v>-2.6200873362445001</v>
       </c>
       <c r="I60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D60)</f>
-        <v>0</v>
+        <v>0.66225165562914001</v>
       </c>
       <c r="J60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D60)</f>
-        <v>0</v>
+        <v>-0.37735849056602999</v>
       </c>
       <c r="K60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D60)</f>
-        <v>0</v>
+        <v>1.3114754098360999</v>
       </c>
       <c r="L60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D60)</f>
-        <v>0</v>
+        <v>-0.14958863126402</v>
       </c>
       <c r="M60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D60)</f>
-        <v>0</v>
+        <v>2.8887523048556001</v>
       </c>
       <c r="N60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D60)</f>
-        <v>0</v>
+        <v>-0.21945866861741001</v>
       </c>
     </row>
     <row r="61" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D61" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45212</v>
+        <v>45228</v>
       </c>
       <c r="E61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D61)</f>
-        <v>-0.80231065468549001</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D61)</f>
-        <v>-0.18885741265344</v>
+        <v>0</v>
       </c>
       <c r="G61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D61)</f>
-        <v>-4.0311240273740996</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D61)</f>
-        <v>-1.9666133089411999</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D61)</f>
-        <v>-4.1033515116218</v>
+        <v>0</v>
       </c>
       <c r="J61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D61)</f>
-        <v>-1.0600706713781001</v>
+        <v>0</v>
       </c>
       <c r="K61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D61)</f>
-        <v>-1.5822259136212999</v>
+        <v>0</v>
       </c>
       <c r="L61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D61)</f>
-        <v>2.3963730569948001</v>
+        <v>0</v>
       </c>
       <c r="M61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D61)</f>
-        <v>-0.65086006508601002</v>
+        <v>0</v>
       </c>
       <c r="N61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D61)</f>
-        <v>-1.3874662445293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D62" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45211</v>
+        <v>45227</v>
       </c>
       <c r="E62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D62)</f>
-        <v>-3.3798449612403001</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D62)</f>
-        <v>0.28409090909090001</v>
+        <v>0</v>
       </c>
       <c r="G62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D62)</f>
-        <v>-2.7886630821106002</v>
+        <v>0</v>
       </c>
       <c r="H62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D62)</f>
-        <v>-2.8869642460581999</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D62)</f>
-        <v>-4.1269035532995</v>
+        <v>0</v>
       </c>
       <c r="J62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D62)</f>
-        <v>0.17699115044246999</v>
+        <v>0</v>
       </c>
       <c r="K62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D62)</f>
-        <v>-1.4326647564470001</v>
+        <v>0</v>
       </c>
       <c r="L62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D62)</f>
-        <v>-2.5867507886435002</v>
+        <v>0</v>
       </c>
       <c r="M62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D62)</f>
-        <v>-0.32437442075994999</v>
+        <v>0</v>
       </c>
       <c r="N62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D62)</f>
-        <v>1.9848053181387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D63" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45210</v>
+        <v>45226</v>
       </c>
       <c r="E63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D63)</f>
-        <v>3.7978757644029999</v>
+        <v>1.4692378328742</v>
       </c>
       <c r="F63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D63)</f>
-        <v>1.0526315789473999</v>
+        <v>5.3680535350597003</v>
       </c>
       <c r="G63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D63)</f>
-        <v>0.25582457743261999</v>
+        <v>1.6511867905057001</v>
       </c>
       <c r="H63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D63)</f>
-        <v>0.67069081153589005</v>
+        <v>-0.21786492374727001</v>
       </c>
       <c r="I63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D63)</f>
-        <v>0.58718406944089996</v>
+        <v>2.0270270270270001</v>
       </c>
       <c r="J63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D63)</f>
-        <v>1.2544802867384</v>
+        <v>1.7274472168906001</v>
       </c>
       <c r="K63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D63)</f>
-        <v>-1.2889409673118</v>
+        <v>2.0066889632107001</v>
       </c>
       <c r="L63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D63)</f>
-        <v>4.9321416749421001</v>
+        <v>-0.22388059701492999</v>
       </c>
       <c r="M63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D63)</f>
-        <v>6.0963618485742002</v>
+        <v>1.6239850093691</v>
       </c>
       <c r="N63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D63)</f>
-        <v>-0.49140049140049002</v>
+        <v>1.7113095238095</v>
       </c>
     </row>
     <row r="64" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D64" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45209</v>
+        <v>45225</v>
       </c>
       <c r="E64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D64)</f>
-        <v>0.25814778960955997</v>
+        <v>-0.63868613138686003</v>
       </c>
       <c r="F64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D64)</f>
-        <v>-0.85388994307400001</v>
+        <v>-0.39124764526882</v>
       </c>
       <c r="G64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D64)</f>
-        <v>-1.4496668467495</v>
+        <v>3.0851063829787</v>
       </c>
       <c r="H64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D64)</f>
-        <v>-0.53368912608406005</v>
+        <v>-2.3404255319148999</v>
       </c>
       <c r="I64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D64)</f>
-        <v>2.5536261491309001E-2</v>
+        <v>-0.67114093959732002</v>
       </c>
       <c r="J64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D64)</f>
-        <v>-0.71174377224199004</v>
+        <v>0.19230769230768999</v>
       </c>
       <c r="K64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D64)</f>
-        <v>-6.3176622000150999</v>
+        <v>0.33557046979867</v>
       </c>
       <c r="L64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D64)</f>
-        <v>-6.6159444260667E-2</v>
+        <v>-3.8737446197990999</v>
       </c>
       <c r="M64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D64)</f>
-        <v>3.3536585365853999</v>
+        <v>6.2500000000010006E-2</v>
       </c>
       <c r="N64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D64)</f>
-        <v>0.88664314996661997</v>
+        <v>0.67415730337079005</v>
       </c>
     </row>
     <row r="65" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D65" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45208</v>
+        <v>45224</v>
       </c>
       <c r="E65">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D65)</f>
-        <v>-2.7001569858712999</v>
+        <v>0.82796688132476004</v>
       </c>
       <c r="F65">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D65)</f>
-        <v>-2.4074074074073999</v>
+        <v>-2.3627617430673</v>
       </c>
       <c r="G65">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D65)</f>
-        <v>-4.0932642487047</v>
+        <v>-1.7421602787456001</v>
       </c>
       <c r="H65">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D65)</f>
-        <v>-2.2391304347826</v>
+        <v>2.1739130434782998</v>
       </c>
       <c r="I65">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D65)</f>
-        <v>-11.101021566402</v>
+        <v>1.3605442176871001</v>
       </c>
       <c r="J65">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D65)</f>
-        <v>0</v>
+        <v>1.9607843137255001</v>
       </c>
       <c r="K65">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D65)</f>
-        <v>5.9304703476483001</v>
+        <v>2.0547945205479001</v>
       </c>
       <c r="L65">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D65)</f>
-        <v>-1.8825056799740001</v>
+        <v>1.1611030478955</v>
       </c>
       <c r="M65">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D65)</f>
-        <v>-3.7181996086105999</v>
+        <v>0.75566750629722002</v>
       </c>
       <c r="N65">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D65)</f>
-        <v>-2.8593213877241001E-2</v>
+        <v>-0.96439169139465997</v>
       </c>
     </row>
     <row r="66" spans="4:14" x14ac:dyDescent="0.25">

--- a/金融/股市机器学习/风险投资组合分析.xlsx
+++ b/金融/股市机器学习/风险投资组合分析.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11470\Desktop\HARISAN\Various-Codes\金融\股市机器学习\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D143FAC-2407-40E0-86D2-F926133CDFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D27C3AC-5D34-42BD-94D0-EC9FE8BDB783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="2200" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,31 +54,31 @@
     <t>600499.SH</t>
   </si>
   <si>
-    <t>605117.SH</t>
+    <t>603600.SH</t>
   </si>
   <si>
-    <t>000831.SZ</t>
+    <t>000039.SZ</t>
   </si>
   <si>
-    <t>600123.SH</t>
+    <t>603568.SH</t>
   </si>
   <si>
-    <t>601880.SH</t>
+    <t>600926.SH</t>
   </si>
   <si>
-    <t>000737.SZ</t>
+    <t>688249.SH</t>
   </si>
   <si>
-    <t>600219.SH</t>
+    <t>300673.SZ</t>
   </si>
   <si>
-    <t>600508.SH</t>
+    <t>300888.SZ</t>
   </si>
   <si>
-    <t>601702.SH</t>
+    <t>600714.SH</t>
   </si>
   <si>
-    <t>600233.SH</t>
+    <t>002756.SZ</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="A3" sqref="A3:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="B1" s="1">
         <f ca="1">[1]!thsiFinD("ths_28rnhsyl_fund",C1,D4)</f>
-        <v>1.9286871216839001</v>
+        <v>2.5927787082981002</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -485,60 +485,60 @@
       </c>
       <c r="E2" s="4" t="str">
         <f>B3&amp;A3</f>
-        <v>科达制造600499.SH</v>
+        <v>永艺股份603600.SH</v>
       </c>
       <c r="F2" t="str">
         <f>B4&amp;A4</f>
-        <v>德业股份605117.SH</v>
+        <v>中集集团000039.SZ</v>
       </c>
       <c r="G2" t="str">
         <f>B5&amp;A5</f>
-        <v>中国稀土000831.SZ</v>
+        <v>伟明环保603568.SH</v>
       </c>
       <c r="H2" t="str">
         <f>B6&amp;A6</f>
-        <v>兰花科创600123.SH</v>
+        <v>科达制造600499.SH</v>
       </c>
       <c r="I2" t="str">
         <f>B7&amp;A7</f>
-        <v>辽港股份601880.SH</v>
+        <v>杭州银行600926.SH</v>
       </c>
       <c r="J2" t="str">
         <f>B8&amp;A8</f>
-        <v>北方铜业000737.SZ</v>
+        <v>晶合集成688249.SH</v>
       </c>
       <c r="K2" t="str">
         <f>B9&amp;A9</f>
-        <v>南山铝业600219.SH</v>
+        <v>佩蒂股份300673.SZ</v>
       </c>
       <c r="L2" t="str">
         <f>B10&amp;A10</f>
-        <v>上海能源600508.SH</v>
+        <v>稳健医疗300888.SZ</v>
       </c>
       <c r="M2" t="str">
         <f>B11&amp;A11</f>
-        <v>华峰铝业601702.SH</v>
+        <v>金瑞矿业600714.SH</v>
       </c>
       <c r="N2" t="str">
         <f>B12&amp;A12</f>
-        <v>圆通速递600233.SH</v>
+        <v>永兴材料002756.SZ</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A3)</f>
-        <v>科达制造</v>
+        <v>永艺股份</v>
       </c>
       <c r="C3" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A3,$D$4,100,"")</f>
-        <v>10.32</v>
+        <v>11.28</v>
       </c>
       <c r="D3" s="5">
         <f ca="1">TODAY()</f>
-        <v>45286</v>
+        <v>45303</v>
       </c>
       <c r="E3">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D3)</f>
@@ -583,173 +583,173 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A4)</f>
-        <v>德业股份</v>
+        <v>中集集团</v>
       </c>
       <c r="C4" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A4,$D$4,100,"")</f>
-        <v>75.5</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="D4" s="5">
         <f ca="1">TODAY()-1</f>
-        <v>45285</v>
+        <v>45302</v>
       </c>
       <c r="E4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D4)</f>
-        <v>0.97847358121329997</v>
+        <v>0.80428954423592003</v>
       </c>
       <c r="F4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D4)</f>
-        <v>2.9873141454099001</v>
+        <v>2.72614622057</v>
       </c>
       <c r="G4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D4)</f>
-        <v>3.6883703424915</v>
+        <v>3.6166365280288999</v>
       </c>
       <c r="H4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D4)</f>
-        <v>1.77690029615</v>
+        <v>6.5894924309884004</v>
       </c>
       <c r="I4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D4)</f>
-        <v>-0.68493150684932003</v>
+        <v>0.99900099900100003</v>
       </c>
       <c r="J4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D4)</f>
-        <v>-0.17761989342806001</v>
+        <v>0.41249263406011</v>
       </c>
       <c r="K4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D4)</f>
-        <v>-0.35460992907800998</v>
+        <v>3.1432748538011999</v>
       </c>
       <c r="L4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D4)</f>
-        <v>0.29006526468456001</v>
+        <v>0.96826250672404002</v>
       </c>
       <c r="M4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D4)</f>
-        <v>2.1831412977562001</v>
+        <v>0.72614107883818002</v>
       </c>
       <c r="N4">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D4)</f>
-        <v>1.4237855946399001</v>
+        <v>6.1141051849099002</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A5)</f>
-        <v>中国稀土</v>
+        <v>伟明环保</v>
       </c>
       <c r="C5" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A5,$D$4,100,"")</f>
-        <v>27.55</v>
+        <v>17.190000000000001</v>
       </c>
       <c r="D5" s="6">
         <f ca="1">D4-1</f>
-        <v>45284</v>
+        <v>45301</v>
       </c>
       <c r="E5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D5)</f>
-        <v>0</v>
+        <v>0.53908355795147</v>
       </c>
       <c r="F5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D5)</f>
-        <v>0</v>
+        <v>0.24844720496893999</v>
       </c>
       <c r="G5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D5)</f>
-        <v>0</v>
+        <v>-0.12040939193257</v>
       </c>
       <c r="H5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D5)</f>
-        <v>0</v>
+        <v>3.5023041474654</v>
       </c>
       <c r="I5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D5)</f>
-        <v>0</v>
+        <v>9.9999999999997993E-2</v>
       </c>
       <c r="J5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D5)</f>
-        <v>0</v>
+        <v>0.41420118343195</v>
       </c>
       <c r="K5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D5)</f>
-        <v>0</v>
+        <v>1.2583271650629</v>
       </c>
       <c r="L5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D5)</f>
-        <v>0</v>
+        <v>2.3960341503718001</v>
       </c>
       <c r="M5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D5)</f>
-        <v>0</v>
+        <v>0.52137643378520004</v>
       </c>
       <c r="N5">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D5)</f>
-        <v>0</v>
+        <v>2.4757189106837001</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A6)</f>
-        <v>兰花科创</v>
+        <v>科达制造</v>
       </c>
       <c r="C6" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A6,$D$4,100,"")</f>
-        <v>10.31</v>
+        <v>11.97</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" ref="D6:D48" ca="1" si="0">D5-1</f>
-        <v>45283</v>
+        <v>45300</v>
       </c>
       <c r="E6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D6)</f>
-        <v>0</v>
+        <v>8.9928057553971E-2</v>
       </c>
       <c r="F6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D6)</f>
-        <v>0</v>
+        <v>3.0729833546735001</v>
       </c>
       <c r="G6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D6)</f>
-        <v>0</v>
+        <v>-0.35992801439713001</v>
       </c>
       <c r="H6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D6)</f>
-        <v>0</v>
+        <v>2.8436018957345999</v>
       </c>
       <c r="I6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D6)</f>
-        <v>0</v>
+        <v>0.50251256281407997</v>
       </c>
       <c r="J6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D6)</f>
-        <v>0</v>
+        <v>0.35629453681709</v>
       </c>
       <c r="K6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D6)</f>
-        <v>0</v>
+        <v>-0.80763582966226</v>
       </c>
       <c r="L6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D6)</f>
-        <v>0</v>
+        <v>0.30386740331492001</v>
       </c>
       <c r="M6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D6)</f>
-        <v>0</v>
+        <v>1.8046709129512</v>
       </c>
       <c r="N6">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D6)</f>
-        <v>0</v>
+        <v>3.4475965327028999</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -758,55 +758,55 @@
       </c>
       <c r="B7" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A7)</f>
-        <v>辽港股份</v>
+        <v>杭州银行</v>
       </c>
       <c r="C7" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A7,$D$4,100,"")</f>
-        <v>1.45</v>
+        <v>10.11</v>
       </c>
       <c r="D7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45282</v>
+        <v>45299</v>
       </c>
       <c r="E7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D7)</f>
-        <v>2.3023023023023002</v>
+        <v>-1.4184397163121001</v>
       </c>
       <c r="F7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D7)</f>
-        <v>9.4179104477611997</v>
+        <v>-1.7610062893081999</v>
       </c>
       <c r="G7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D7)</f>
-        <v>1.4896867838043999</v>
+        <v>-0.89179548156955002</v>
       </c>
       <c r="H7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D7)</f>
-        <v>0.79601990049751004</v>
+        <v>-1.9516728624535</v>
       </c>
       <c r="I7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D7)</f>
-        <v>0</v>
+        <v>-1.6798418972332001</v>
       </c>
       <c r="J7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D7)</f>
-        <v>1.2589928057554001</v>
+        <v>-1.9219569015725</v>
       </c>
       <c r="K7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D7)</f>
-        <v>1.8050541516245</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D7)</f>
-        <v>0.58351568198393999</v>
+        <v>-2.4258760107817001</v>
       </c>
       <c r="M7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D7)</f>
-        <v>-0.36253776435047003</v>
+        <v>-2.1806853582554999</v>
       </c>
       <c r="N7">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D7)</f>
-        <v>0.16778523489933</v>
+        <v>-0.66536203522505999</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -815,15 +815,15 @@
       </c>
       <c r="B8" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A8)</f>
-        <v>北方铜业</v>
+        <v>晶合集成</v>
       </c>
       <c r="C8" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A8,$D$4,100,"")</f>
-        <v>5.62</v>
+        <v>17.04</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45281</v>
+        <v>45298</v>
       </c>
       <c r="E8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D8)</f>
@@ -831,23 +831,23 @@
       </c>
       <c r="F8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D8)</f>
-        <v>9.9983582334592001</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D8)</f>
-        <v>0.53763440860214995</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D8)</f>
-        <v>-0.19860973187686001</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D8)</f>
-        <v>-0.68027210884353995</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D8)</f>
-        <v>1.8315018315017999</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D8)</f>
@@ -855,15 +855,15 @@
       </c>
       <c r="L8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D8)</f>
-        <v>-0.50798258345427005</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D8)</f>
-        <v>-0.18094089264172</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D8)</f>
-        <v>0.76077768385460998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -872,19 +872,19 @@
       </c>
       <c r="B9" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A9)</f>
-        <v>南山铝业</v>
+        <v>佩蒂股份</v>
       </c>
       <c r="C9" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A9,$D$4,100,"")</f>
-        <v>2.81</v>
+        <v>14.11</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45280</v>
+        <v>45297</v>
       </c>
       <c r="E9">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D9)</f>
-        <v>0.30120481927710002</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D9)</f>
@@ -892,19 +892,19 @@
       </c>
       <c r="G9">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D9)</f>
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D9)</f>
-        <v>0.90180360721442998</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D9)</f>
-        <v>-0.67567567567567999</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D9)</f>
-        <v>0.55248618784531001</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D9)</f>
@@ -912,15 +912,15 @@
       </c>
       <c r="L9">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D9)</f>
-        <v>0.58394160583942001</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D9)</f>
-        <v>0.48484848484846998</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D9)</f>
-        <v>-0.42087542087543001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -929,55 +929,55 @@
       </c>
       <c r="B10" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A10)</f>
-        <v>上海能源</v>
+        <v>稳健医疗</v>
       </c>
       <c r="C10" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A10,$D$4,100,"")</f>
-        <v>13.83</v>
+        <v>37.54</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45279</v>
+        <v>45296</v>
       </c>
       <c r="E10">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D10)</f>
-        <v>-0.10030090270812</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D10)</f>
-        <v>4.6204053589832004</v>
+        <v>0.76045627376425995</v>
       </c>
       <c r="G10">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D10)</f>
-        <v>-1.5378844711177999</v>
+        <v>2.1250758955676998</v>
       </c>
       <c r="H10">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D10)</f>
-        <v>-0.49850448654037</v>
+        <v>1.8939393939394</v>
       </c>
       <c r="I10">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D10)</f>
-        <v>0</v>
+        <v>3.6885245901639001</v>
       </c>
       <c r="J10">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D10)</f>
-        <v>-1.0928961748634001</v>
+        <v>0.17502917152858999</v>
       </c>
       <c r="K10">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D10)</f>
-        <v>0</v>
+        <v>1.1135857461023999</v>
       </c>
       <c r="L10">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D10)</f>
-        <v>-1.2256669069935</v>
+        <v>-1.0138740661686001</v>
       </c>
       <c r="M10">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D10)</f>
-        <v>-0.90090090090089003</v>
+        <v>-0.41365046535675998</v>
       </c>
       <c r="N10">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D10)</f>
-        <v>-0.83472454090149995</v>
+        <v>1.5904572564612001</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -986,55 +986,55 @@
       </c>
       <c r="B11" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A11)</f>
-        <v>华峰铝业</v>
+        <v>金瑞矿业</v>
       </c>
       <c r="C11" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A11,$D$4,100,"")</f>
-        <v>16.850000000000001</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45278</v>
+        <v>45295</v>
       </c>
       <c r="E11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D11)</f>
-        <v>0.40281973816717997</v>
+        <v>-0.17699115044249</v>
       </c>
       <c r="F11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D11)</f>
-        <v>-0.15434745326703</v>
+        <v>-0.25284450063212</v>
       </c>
       <c r="G11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D11)</f>
-        <v>-2.2010271460015001</v>
+        <v>-0.42321644498186001</v>
       </c>
       <c r="H11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D11)</f>
-        <v>-0.69306930693070001</v>
+        <v>0.85959885386819002</v>
       </c>
       <c r="I11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D11)</f>
-        <v>0</v>
+        <v>-0.61099796334013001</v>
       </c>
       <c r="J11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D11)</f>
-        <v>-1.4362657091562001</v>
+        <v>-0.52234474753337001</v>
       </c>
       <c r="K11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D11)</f>
-        <v>-1.4234875444840001</v>
+        <v>0.67264573991030996</v>
       </c>
       <c r="L11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D11)</f>
-        <v>-0.8577555396712</v>
+        <v>0.61744966442951998</v>
       </c>
       <c r="M11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D11)</f>
-        <v>-0.89285714285716</v>
+        <v>-0.30927835051545999</v>
       </c>
       <c r="N11">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D11)</f>
-        <v>-0.82781456953641996</v>
+        <v>-3.1947652040031</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1043,55 +1043,55 @@
       </c>
       <c r="B12" t="str">
         <f>[1]!thsiFinD("ths_stock_short_name_stock",A12)</f>
-        <v>圆通速递</v>
+        <v>永兴材料</v>
       </c>
       <c r="C12" s="1">
         <f ca="1">[1]!thsiFinD("ths_close_price_stock",A12,$D$4,100,"")</f>
-        <v>12.11</v>
+        <v>57.1</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45277</v>
+        <v>45294</v>
       </c>
       <c r="E12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D12)</f>
-        <v>0</v>
+        <v>-0.61565523306947001</v>
       </c>
       <c r="F12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D12)</f>
-        <v>0</v>
+        <v>1.0217113665390001</v>
       </c>
       <c r="G12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D12)</f>
-        <v>0</v>
+        <v>1.038485033598</v>
       </c>
       <c r="H12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D12)</f>
-        <v>0</v>
+        <v>-0.38058991436725997</v>
       </c>
       <c r="I12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D12)</f>
-        <v>0</v>
+        <v>-0.30456852791877997</v>
       </c>
       <c r="J12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D12)</f>
-        <v>0</v>
+        <v>-0.28935185185186002</v>
       </c>
       <c r="K12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D12)</f>
-        <v>0</v>
+        <v>-0.74183976261127005</v>
       </c>
       <c r="L12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D12)</f>
-        <v>0</v>
+        <v>-0.61366061899679003</v>
       </c>
       <c r="M12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D12)</f>
-        <v>0</v>
+        <v>0.31023784901757001</v>
       </c>
       <c r="N12">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D12)</f>
-        <v>0</v>
+        <v>0.52234474753338</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1099,47 +1099,47 @@
       <c r="B13" s="2"/>
       <c r="D13" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45276</v>
+        <v>45293</v>
       </c>
       <c r="E13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D13)</f>
-        <v>0</v>
+        <v>2.9891304347826</v>
       </c>
       <c r="F13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D13)</f>
-        <v>0</v>
+        <v>2.3529411764705999</v>
       </c>
       <c r="G13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D13)</f>
-        <v>0</v>
+        <v>2.3125</v>
       </c>
       <c r="H13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D13)</f>
-        <v>0</v>
+        <v>-0.37914691943128997</v>
       </c>
       <c r="I13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D13)</f>
-        <v>0</v>
+        <v>-1.5984015984016</v>
       </c>
       <c r="J13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D13)</f>
-        <v>0</v>
+        <v>0.17391304347827</v>
       </c>
       <c r="K13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D13)</f>
-        <v>0</v>
+        <v>1.3533834586466</v>
       </c>
       <c r="L13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D13)</f>
-        <v>0</v>
+        <v>0.61744966442951998</v>
       </c>
       <c r="M13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D13)</f>
-        <v>0</v>
+        <v>0.72916666666666996</v>
       </c>
       <c r="N13">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D13)</f>
-        <v>0</v>
+        <v>-0.99597778203410003</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1147,23 +1147,23 @@
       <c r="B14" s="2"/>
       <c r="D14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45275</v>
+        <v>45292</v>
       </c>
       <c r="E14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D14)</f>
-        <v>-0.40120361083250999</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D14)</f>
-        <v>4.6294634846582001</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D14)</f>
-        <v>0.14695077149155999</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D14)</f>
-        <v>0.39761431411530002</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D14)</f>
@@ -1171,225 +1171,225 @@
       </c>
       <c r="J14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D14)</f>
-        <v>0.17985611510793001</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D14)</f>
-        <v>-0.35460992907800998</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D14)</f>
-        <v>-0.92067988668555001</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D14)</f>
-        <v>-0.94339622641510001</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D14)</f>
-        <v>-0.98360655737703995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45274</v>
+        <v>45291</v>
       </c>
       <c r="E15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D15)</f>
-        <v>-0.39960039960039001</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D15)</f>
-        <v>-0.42880114346971998</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D15)</f>
-        <v>-0.36603221083456</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D15)</f>
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D15)</f>
-        <v>-0.67114093959732002</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D15)</f>
-        <v>0.3610108303249</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D15)</f>
-        <v>0.35587188612099002</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D15)</f>
-        <v>1.3639626704953001</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D15)</f>
-        <v>0.17720023626699</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D15)</f>
-        <v>0.49423393739701998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45273</v>
+        <v>45290</v>
       </c>
       <c r="E16">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D16)</f>
-        <v>-0.59582919563059</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D16)</f>
-        <v>-3.4334023464458001</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D16)</f>
-        <v>-1.3005780346821001</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D16)</f>
-        <v>-0.59642147117296995</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D16)</f>
-        <v>-0.66666666666666996</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D16)</f>
-        <v>-0.53859964093358004</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D16)</f>
-        <v>-1.4035087719298001</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D16)</f>
-        <v>-1.2056737588652</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D16)</f>
-        <v>0.65398335315100997</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D16)</f>
-        <v>-2.3330651649236001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45272</v>
+        <v>45289</v>
       </c>
       <c r="E17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D17)</f>
-        <v>-1.1776251226693</v>
+        <v>2.7932960893855001</v>
       </c>
       <c r="F17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D17)</f>
-        <v>-2.7353582815909001</v>
+        <v>-0.52015604681404004</v>
       </c>
       <c r="G17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D17)</f>
-        <v>-0.50323508267434003</v>
+        <v>-1.9607843137255001</v>
       </c>
       <c r="H17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D17)</f>
-        <v>0.90270812437311998</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D17)</f>
-        <v>0.67114093959732002</v>
+        <v>9.9999999999997993E-2</v>
       </c>
       <c r="J17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D17)</f>
-        <v>0.90579710144929004</v>
+        <v>4.2926239419589001</v>
       </c>
       <c r="K17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D17)</f>
-        <v>1.0638297872341</v>
+        <v>0.15060240963856</v>
       </c>
       <c r="L17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D17)</f>
-        <v>-0.21231422505309</v>
+        <v>0.83919870059557</v>
       </c>
       <c r="M17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D17)</f>
-        <v>2.3737066342056998</v>
+        <v>0.62893081761006997</v>
       </c>
       <c r="N17">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D17)</f>
-        <v>0.16116035455277999</v>
+        <v>1.4574426739215001</v>
       </c>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45271</v>
+        <v>45288</v>
       </c>
       <c r="E18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D18)</f>
-        <v>-1.9249278152069</v>
+        <v>1.3207547169811</v>
       </c>
       <c r="F18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D18)</f>
-        <v>-0.56732854997495996</v>
+        <v>-0.64599483204134001</v>
       </c>
       <c r="G18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D18)</f>
-        <v>-0.46511627906976</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D18)</f>
-        <v>2.9958677685951001</v>
+        <v>4.8707753479124998</v>
       </c>
       <c r="I18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D18)</f>
-        <v>0</v>
+        <v>2.9866117404737</v>
       </c>
       <c r="J18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D18)</f>
-        <v>0.54644808743168005</v>
+        <v>2.2881880024736998</v>
       </c>
       <c r="K18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D18)</f>
-        <v>-0.35335689045937002</v>
+        <v>2.2324865280984998</v>
       </c>
       <c r="L18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D18)</f>
-        <v>3.2140248356465002</v>
+        <v>2.0723956894170001</v>
       </c>
       <c r="M18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D18)</f>
-        <v>2.4953212726138001</v>
+        <v>4.0348964013086004</v>
       </c>
       <c r="N18">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D18)</f>
-        <v>1.3888888888888999</v>
+        <v>8.1092436974790001</v>
       </c>
     </row>
     <row r="19" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D19" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45270</v>
+        <v>45287</v>
       </c>
       <c r="E19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D19)</f>
-        <v>0</v>
+        <v>-3.9855072463768</v>
       </c>
       <c r="F19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D19)</f>
-        <v>0</v>
+        <v>0.38910505836575998</v>
       </c>
       <c r="G19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D19)</f>
-        <v>0</v>
+        <v>-0.91074681238614996</v>
       </c>
       <c r="H19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D19)</f>
@@ -1397,141 +1397,141 @@
       </c>
       <c r="I19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D19)</f>
-        <v>0</v>
+        <v>1.2513034410845001</v>
       </c>
       <c r="J19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D19)</f>
-        <v>0</v>
+        <v>1.125703564728</v>
       </c>
       <c r="K19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D19)</f>
-        <v>0</v>
+        <v>4.1700080192462003</v>
       </c>
       <c r="L19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D19)</f>
-        <v>0</v>
+        <v>0.13835085777531</v>
       </c>
       <c r="M19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D19)</f>
-        <v>0</v>
+        <v>0.65861690450054999</v>
       </c>
       <c r="N19">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D19)</f>
-        <v>0</v>
+        <v>-1.7949246956880001</v>
       </c>
     </row>
     <row r="20" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45269</v>
+        <v>45286</v>
       </c>
       <c r="E20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D20)</f>
-        <v>0</v>
+        <v>-3.2427695004381998</v>
       </c>
       <c r="F20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D20)</f>
-        <v>0</v>
+        <v>-0.51612903225805995</v>
       </c>
       <c r="G20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D20)</f>
-        <v>0</v>
+        <v>0.54945054945055005</v>
       </c>
       <c r="H20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D20)</f>
-        <v>0</v>
+        <v>-2.5193798449611999</v>
       </c>
       <c r="I20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D20)</f>
-        <v>0</v>
+        <v>-0.92975206611570005</v>
       </c>
       <c r="J20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D20)</f>
-        <v>0</v>
+        <v>-0.37383177570094001</v>
       </c>
       <c r="K20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D20)</f>
-        <v>0</v>
+        <v>-2.3492560689115001</v>
       </c>
       <c r="L20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D20)</f>
-        <v>0</v>
+        <v>-0.52298375997796998</v>
       </c>
       <c r="M20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D20)</f>
-        <v>0</v>
+        <v>-1.1930585683296999</v>
       </c>
       <c r="N20">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D20)</f>
-        <v>0</v>
+        <v>6.1932287365815998E-2</v>
       </c>
     </row>
     <row r="21" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D21" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45268</v>
+        <v>45285</v>
       </c>
       <c r="E21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D21)</f>
-        <v>0.19286403085826001</v>
+        <v>1.875</v>
       </c>
       <c r="F21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D21)</f>
-        <v>-0.86021505376344998</v>
+        <v>-0.12886597938144001</v>
       </c>
       <c r="G21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D21)</f>
-        <v>0.79336458708978996</v>
+        <v>-1.1466505733253001</v>
       </c>
       <c r="H21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D21)</f>
-        <v>-0.81967213114754001</v>
+        <v>0.97847358121329997</v>
       </c>
       <c r="I21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D21)</f>
-        <v>0</v>
+        <v>0.10341261633918999</v>
       </c>
       <c r="J21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D21)</f>
-        <v>-1.9642857142857</v>
+        <v>2.8846153846154001</v>
       </c>
       <c r="K21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D21)</f>
-        <v>-0.70175438596491002</v>
+        <v>-0.93095422808379003</v>
       </c>
       <c r="L21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D21)</f>
-        <v>-0.72516316171137996</v>
+        <v>-0.92718843741478996</v>
       </c>
       <c r="M21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D21)</f>
-        <v>-1.8971848225214001</v>
+        <v>0.43572984749456001</v>
       </c>
       <c r="N21">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D21)</f>
-        <v>1.1570247933883999</v>
+        <v>0.47707944409872999</v>
       </c>
     </row>
     <row r="22" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D22" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45267</v>
+        <v>45284</v>
       </c>
       <c r="E22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D22)</f>
-        <v>-0.47984644913628</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D22)</f>
-        <v>-2.0259319286872</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D22)</f>
-        <v>-0.92890317970702996</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D22)</f>
-        <v>-0.10235414534288</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D22)</f>
@@ -1543,41 +1543,41 @@
       </c>
       <c r="K22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D22)</f>
-        <v>0.35211267605634999</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D22)</f>
-        <v>-0.21707670043416</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D22)</f>
-        <v>-1.0895883777240001</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D22)</f>
-        <v>-2.0242914979757001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D23" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45266</v>
+        <v>45283</v>
       </c>
       <c r="E23">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D23)</f>
-        <v>2.5590551181102001</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D23)</f>
-        <v>3.2808838299296998</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D23)</f>
-        <v>2.9801324503311002</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D23)</f>
-        <v>0.30800821355234997</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D23)</f>
@@ -1585,91 +1585,91 @@
       </c>
       <c r="J23">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D23)</f>
-        <v>1.2658227848101</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D23)</f>
-        <v>0.35335689045935997</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D23)</f>
-        <v>-0.28860028860027997</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D23)</f>
-        <v>0.24271844660194</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D23)</f>
-        <v>-0.56360708534621995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D24" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45265</v>
+        <v>45282</v>
       </c>
       <c r="E24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D24)</f>
-        <v>-0.29440628066731001</v>
+        <v>-3.7800687285222998</v>
       </c>
       <c r="F24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D24)</f>
-        <v>-2.0334535913414</v>
+        <v>-0.12870012870013001</v>
       </c>
       <c r="G24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D24)</f>
-        <v>-2.545715310147</v>
+        <v>0.72948328267478002</v>
       </c>
       <c r="H24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D24)</f>
-        <v>-2.4048096192384998</v>
+        <v>2.3023023023023002</v>
       </c>
       <c r="I24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D24)</f>
-        <v>-0.66666666666666996</v>
+        <v>0.31120331950206997</v>
       </c>
       <c r="J24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D24)</f>
-        <v>-2.1238938053097001</v>
+        <v>-2.9850746268656998</v>
       </c>
       <c r="K24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D24)</f>
-        <v>-2.4137931034482998</v>
+        <v>-1.1503067484662</v>
       </c>
       <c r="L24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D24)</f>
-        <v>-1.9801980198019999</v>
+        <v>0.79714128642111004</v>
       </c>
       <c r="M24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D24)</f>
-        <v>-2.4852071005916998</v>
+        <v>-2.5477707006368999</v>
       </c>
       <c r="N24">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D24)</f>
-        <v>-2.8928850664582</v>
+        <v>5.8397365532382004</v>
       </c>
     </row>
     <row r="25" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D25" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45264</v>
+        <v>45281</v>
       </c>
       <c r="E25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D25)</f>
-        <v>1.2922465208747</v>
+        <v>10.018903591681999</v>
       </c>
       <c r="F25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D25)</f>
-        <v>-1.5021805847198</v>
+        <v>0.51746442432081996</v>
       </c>
       <c r="G25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D25)</f>
-        <v>0.50450450450451001</v>
+        <v>-1.1418269230769</v>
       </c>
       <c r="H25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D25)</f>
-        <v>0.80808080808080995</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D25)</f>
@@ -1677,183 +1677,183 @@
       </c>
       <c r="J25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D25)</f>
-        <v>1.6187050359712001</v>
+        <v>0.43722673329167</v>
       </c>
       <c r="K25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D25)</f>
-        <v>0.34602076124566999</v>
+        <v>1.875</v>
       </c>
       <c r="L25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D25)</f>
-        <v>1.2893982808022999</v>
+        <v>0.22038567493114</v>
       </c>
       <c r="M25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D25)</f>
-        <v>0</v>
+        <v>-0.94637223974762996</v>
       </c>
       <c r="N25">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D25)</f>
-        <v>-1.6153846153846001</v>
+        <v>1.9471799462846999</v>
       </c>
     </row>
     <row r="26" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D26" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45263</v>
+        <v>45280</v>
       </c>
       <c r="E26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D26)</f>
-        <v>0</v>
+        <v>-0.2827521206409</v>
       </c>
       <c r="F26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D26)</f>
-        <v>0</v>
+        <v>-0.77021822849806998</v>
       </c>
       <c r="G26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D26)</f>
-        <v>0</v>
+        <v>-0.77519379844961001</v>
       </c>
       <c r="H26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D26)</f>
-        <v>0</v>
+        <v>0.30120481927710002</v>
       </c>
       <c r="I26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D26)</f>
-        <v>0</v>
+        <v>-0.10362694300517999</v>
       </c>
       <c r="J26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D26)</f>
-        <v>0</v>
+        <v>-1.5980331899200999</v>
       </c>
       <c r="K26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D26)</f>
-        <v>0</v>
+        <v>-1.2345679012346</v>
       </c>
       <c r="L26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D26)</f>
-        <v>0</v>
+        <v>-0.52069060016444002</v>
       </c>
       <c r="M26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D26)</f>
-        <v>0</v>
+        <v>3.5947712418301001</v>
       </c>
       <c r="N26">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D26)</f>
-        <v>0</v>
+        <v>-1.4339289653651</v>
       </c>
     </row>
     <row r="27" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D27" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45262</v>
+        <v>45279</v>
       </c>
       <c r="E27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D27)</f>
-        <v>0</v>
+        <v>0.95147478591817003</v>
       </c>
       <c r="F27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D27)</f>
-        <v>0</v>
+        <v>0.64599483204134001</v>
       </c>
       <c r="G27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D27)</f>
-        <v>0</v>
+        <v>-1.1202830188679</v>
       </c>
       <c r="H27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D27)</f>
-        <v>0</v>
+        <v>-0.10030090270812</v>
       </c>
       <c r="I27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D27)</f>
-        <v>0</v>
+        <v>-0.20682523267837999</v>
       </c>
       <c r="J27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D27)</f>
-        <v>0</v>
+        <v>1.055900621118</v>
       </c>
       <c r="K27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D27)</f>
-        <v>0</v>
+        <v>-0.99312452253628003</v>
       </c>
       <c r="L27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D27)</f>
-        <v>0</v>
+        <v>0.55111600992010001</v>
       </c>
       <c r="M27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D27)</f>
-        <v>0</v>
+        <v>-2.1321961620468999</v>
       </c>
       <c r="N27">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D27)</f>
-        <v>0</v>
+        <v>-0.91803278688525003</v>
       </c>
     </row>
     <row r="28" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D28" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45261</v>
+        <v>45278</v>
       </c>
       <c r="E28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D28)</f>
-        <v>0.70070070070070001</v>
+        <v>-1.3145539906103001</v>
       </c>
       <c r="F28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D28)</f>
-        <v>-1.8080888183981001</v>
+        <v>-0.25773195876288002</v>
       </c>
       <c r="G28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D28)</f>
-        <v>-0.78655702538434003</v>
+        <v>-1.1078717201166</v>
       </c>
       <c r="H28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D28)</f>
-        <v>1.123595505618</v>
+        <v>0.40281973816717997</v>
       </c>
       <c r="I28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D28)</f>
-        <v>0</v>
+        <v>-0.41194644696190003</v>
       </c>
       <c r="J28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D28)</f>
-        <v>0</v>
+        <v>0.12437810945276</v>
       </c>
       <c r="K28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D28)</f>
-        <v>0.34722222222222998</v>
+        <v>-1.3564431047475001</v>
       </c>
       <c r="L28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D28)</f>
-        <v>1.0130246020261</v>
+        <v>-0.84699453551912995</v>
       </c>
       <c r="M28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D28)</f>
-        <v>-0.41249263406011</v>
+        <v>-2.3933402705515001</v>
       </c>
       <c r="N28">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D28)</f>
-        <v>-1.1406844106464</v>
+        <v>-2.6595744680851001</v>
       </c>
     </row>
     <row r="29" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D29" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45260</v>
+        <v>45277</v>
       </c>
       <c r="E29">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D29)</f>
-        <v>0.40201005025127001</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D29)</f>
-        <v>-1.6227180527383001</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D29)</f>
-        <v>-7.1454090746693996E-2</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D29)</f>
-        <v>-0.10204081632655</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D29)</f>
@@ -1861,19 +1861,19 @@
       </c>
       <c r="J29">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D29)</f>
-        <v>-1.0676156583630001</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D29)</f>
-        <v>-0.68965517241379004</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D29)</f>
-        <v>-0.43227665706051999</v>
+        <v>0</v>
       </c>
       <c r="M29">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D29)</f>
-        <v>-1.0495626822157</v>
+        <v>0</v>
       </c>
       <c r="N29">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D29)</f>
@@ -1883,299 +1883,299 @@
     <row r="30" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D30" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45259</v>
+        <v>45276</v>
       </c>
       <c r="E30">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D30)</f>
-        <v>-0.89641434262948005</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D30)</f>
-        <v>-1.3544712944435999</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D30)</f>
-        <v>0.32258064516128998</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D30)</f>
-        <v>1.1351909184727</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D30)</f>
-        <v>-0.66225165562914001</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D30)</f>
-        <v>0.71684587813620004</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D30)</f>
-        <v>-1.3605442176871001</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D30)</f>
-        <v>0.72568940493470002</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D30)</f>
-        <v>0.52754982415006002</v>
+        <v>0</v>
       </c>
       <c r="N30">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D30)</f>
-        <v>-1.7923823749065999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D31" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45258</v>
+        <v>45275</v>
       </c>
       <c r="E31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D31)</f>
-        <v>-0.39682539682541002</v>
+        <v>2.8985507246376998</v>
       </c>
       <c r="F31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D31)</f>
-        <v>0.51051980198019997</v>
+        <v>-0.76726342710997997</v>
       </c>
       <c r="G31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D31)</f>
-        <v>0.17953321364451</v>
+        <v>-1.1527377521614</v>
       </c>
       <c r="H31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D31)</f>
-        <v>0.10330578512396001</v>
+        <v>-0.40120361083250999</v>
       </c>
       <c r="I31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D31)</f>
-        <v>0</v>
+        <v>-0.20554984583760999</v>
       </c>
       <c r="J31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D31)</f>
-        <v>-0.17889087656529001</v>
+        <v>-2.0706455542022</v>
       </c>
       <c r="K31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D31)</f>
-        <v>0.34129692832764003</v>
+        <v>-0.15048908954101001</v>
       </c>
       <c r="L31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D31)</f>
-        <v>-0.7919366450684</v>
+        <v>-0.59750135795763004</v>
       </c>
       <c r="M31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D31)</f>
-        <v>1.6686531585219999</v>
+        <v>-0.92783505154639001</v>
       </c>
       <c r="N31">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D31)</f>
-        <v>0.67669172932331001</v>
+        <v>1.1840688912809001</v>
       </c>
     </row>
     <row r="32" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D32" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45257</v>
+        <v>45274</v>
       </c>
       <c r="E32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D32)</f>
-        <v>-0.98231827111984005</v>
+        <v>3.3966033966034002</v>
       </c>
       <c r="F32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D32)</f>
-        <v>-2.8262176788936002</v>
+        <v>-0.63532401524777005</v>
       </c>
       <c r="G32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D32)</f>
-        <v>-0.3934191702432</v>
+        <v>1.0483401281305</v>
       </c>
       <c r="H32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D32)</f>
-        <v>1.6806722689075999</v>
+        <v>-0.39960039960039001</v>
       </c>
       <c r="I32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D32)</f>
-        <v>0</v>
+        <v>-0.51124744376276998</v>
       </c>
       <c r="J32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D32)</f>
-        <v>1.0849909584087001</v>
+        <v>-0.36407766990290003</v>
       </c>
       <c r="K32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D32)</f>
-        <v>-0.67796610169492</v>
+        <v>0.98784194528875002</v>
       </c>
       <c r="L32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D32)</f>
-        <v>1.9075568598679</v>
+        <v>-0.62078272604588003</v>
       </c>
       <c r="M32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D32)</f>
-        <v>-0.29708853238263</v>
+        <v>-2.1190716448032001</v>
       </c>
       <c r="N32">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D32)</f>
-        <v>0.52910052910052996</v>
+        <v>0.32397408207345002</v>
       </c>
     </row>
     <row r="33" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D33" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45256</v>
+        <v>45273</v>
       </c>
       <c r="E33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D33)</f>
-        <v>0</v>
+        <v>-0.29880478087648998</v>
       </c>
       <c r="F33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D33)</f>
-        <v>0</v>
+        <v>-0.88161209068010005</v>
       </c>
       <c r="G33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D33)</f>
-        <v>0</v>
+        <v>-1.6045845272206001</v>
       </c>
       <c r="H33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D33)</f>
-        <v>0</v>
+        <v>-0.59582919563059</v>
       </c>
       <c r="I33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D33)</f>
-        <v>0</v>
+        <v>-1.7085427135678</v>
       </c>
       <c r="J33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D33)</f>
-        <v>0</v>
+        <v>-0.96153846153846001</v>
       </c>
       <c r="K33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D33)</f>
-        <v>0</v>
+        <v>-1.2753188297074001</v>
       </c>
       <c r="L33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D33)</f>
-        <v>0</v>
+        <v>-1.6197557089750001</v>
       </c>
       <c r="M33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D33)</f>
-        <v>0</v>
+        <v>9.9889012208656993</v>
       </c>
       <c r="N33">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D33)</f>
-        <v>0</v>
+        <v>-3.0772451329286001</v>
       </c>
     </row>
     <row r="34" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D34" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45255</v>
+        <v>45272</v>
       </c>
       <c r="E34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D34)</f>
-        <v>0</v>
+        <v>2.0325203252031998</v>
       </c>
       <c r="F34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D34)</f>
-        <v>0</v>
+        <v>0.12610340479193999</v>
       </c>
       <c r="G34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D34)</f>
-        <v>0</v>
+        <v>0.28735632183908</v>
       </c>
       <c r="H34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D34)</f>
-        <v>0</v>
+        <v>-1.1776251226693</v>
       </c>
       <c r="I34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D34)</f>
-        <v>0</v>
+        <v>1.2207527975585</v>
       </c>
       <c r="J34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D34)</f>
-        <v>0</v>
+        <v>-0.77519379844961001</v>
       </c>
       <c r="K34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D34)</f>
-        <v>0</v>
+        <v>0.75585789871504006</v>
       </c>
       <c r="L34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D34)</f>
-        <v>0</v>
+        <v>0.42666666666665998</v>
       </c>
       <c r="M34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D34)</f>
-        <v>0</v>
+        <v>-0.55187637969096004</v>
       </c>
       <c r="N34">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D34)</f>
-        <v>0</v>
+        <v>-0.27139874739038999</v>
       </c>
     </row>
     <row r="35" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D35" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45254</v>
+        <v>45271</v>
       </c>
       <c r="E35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D35)</f>
-        <v>-2.2094140249760001</v>
+        <v>1.4432989690722</v>
       </c>
       <c r="F35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D35)</f>
-        <v>-2.5776215582894002</v>
+        <v>0.89058524173026998</v>
       </c>
       <c r="G35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D35)</f>
-        <v>-1.2363122571528999</v>
+        <v>1.7543859649122999</v>
       </c>
       <c r="H35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D35)</f>
-        <v>0.74074074074074003</v>
+        <v>-1.9249278152069</v>
       </c>
       <c r="I35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D35)</f>
-        <v>0.66666666666666996</v>
+        <v>0.10183299389002</v>
       </c>
       <c r="J35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D35)</f>
-        <v>-0.53956834532372999</v>
+        <v>4.9436795994993998</v>
       </c>
       <c r="K35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D35)</f>
-        <v>-0.67340067340067</v>
+        <v>0.53191489361702005</v>
       </c>
       <c r="L35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D35)</f>
-        <v>0.73909830007391997</v>
+        <v>-2.6659557451341E-2</v>
       </c>
       <c r="M35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D35)</f>
-        <v>-2.0942408376963999</v>
+        <v>1.5695067264574001</v>
       </c>
       <c r="N35">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D35)</f>
-        <v>-0.89887640449438</v>
+        <v>-4.0080160320641003</v>
       </c>
     </row>
     <row r="36" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D36" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45253</v>
+        <v>45270</v>
       </c>
       <c r="E36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D36)</f>
-        <v>0.87209302325580995</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D36)</f>
-        <v>-1.0578177075785999</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D36)</f>
-        <v>0.71149057274991001</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D36)</f>
-        <v>1.2861736334405001</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D36)</f>
@@ -2183,321 +2183,321 @@
       </c>
       <c r="J36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D36)</f>
-        <v>0.90744101633394003</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D36)</f>
-        <v>1.0204081632652999</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D36)</f>
-        <v>0.97014925373133998</v>
+        <v>0</v>
       </c>
       <c r="M36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D36)</f>
-        <v>1.4159292035397999</v>
+        <v>0</v>
       </c>
       <c r="N36">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D36)</f>
-        <v>-0.14958863126402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D37" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45252</v>
+        <v>45269</v>
       </c>
       <c r="E37">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D37)</f>
-        <v>-1.9011406844106</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D37)</f>
-        <v>-3.0758426966291998</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D37)</f>
-        <v>-1.7132867132867</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D37)</f>
-        <v>-0.53304904051172997</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D37)</f>
-        <v>-0.66225165562914001</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D37)</f>
-        <v>-1.6071428571429001</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D37)</f>
-        <v>-1.010101010101</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D37)</f>
-        <v>-0.59347181008901995</v>
+        <v>0</v>
       </c>
       <c r="M37">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D37)</f>
-        <v>-1.3387660069848999</v>
+        <v>0</v>
       </c>
       <c r="N37">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D37)</f>
-        <v>-0.81602373887240998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D38" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45251</v>
+        <v>45268</v>
       </c>
       <c r="E38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D38)</f>
-        <v>-0.47303689687796002</v>
+        <v>-3.1936127744511</v>
       </c>
       <c r="F38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D38)</f>
-        <v>-2.3855223471346001</v>
+        <v>-1.0075566750630001</v>
       </c>
       <c r="G38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D38)</f>
-        <v>-1.1406844106464</v>
+        <v>0.41103934233704997</v>
       </c>
       <c r="H38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D38)</f>
-        <v>0.21367521367523001</v>
+        <v>0.19286403085826001</v>
       </c>
       <c r="I38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D38)</f>
-        <v>0.66666666666666996</v>
+        <v>0.10193679918449999</v>
       </c>
       <c r="J38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D38)</f>
-        <v>0.53859964093356005</v>
+        <v>-0.49813200498130999</v>
       </c>
       <c r="K38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D38)</f>
-        <v>0.33783783783784999</v>
+        <v>-2.4462564862860998</v>
       </c>
       <c r="L38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D38)</f>
-        <v>0.14858841010401</v>
+        <v>-1.3413992635455001</v>
       </c>
       <c r="M38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D38)</f>
-        <v>-1.1507479861909999</v>
+        <v>-2.7262813522356</v>
       </c>
       <c r="N38">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D38)</f>
-        <v>-0.36954915003694999</v>
+        <v>0.91001011122344999</v>
       </c>
     </row>
     <row r="39" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D39" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45250</v>
+        <v>45267</v>
       </c>
       <c r="E39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D39)</f>
-        <v>-0.47080979284368002</v>
+        <v>-0.19920318725099001</v>
       </c>
       <c r="F39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D39)</f>
-        <v>0.1235415236788</v>
+        <v>1.2755102040816</v>
       </c>
       <c r="G39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D39)</f>
-        <v>0.41652204095799999</v>
+        <v>-1.1033681765389001</v>
       </c>
       <c r="H39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D39)</f>
-        <v>-0.95238095238095</v>
+        <v>-0.47984644913628</v>
       </c>
       <c r="I39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D39)</f>
-        <v>0.67114093959732002</v>
+        <v>0.10204081632653</v>
       </c>
       <c r="J39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D39)</f>
-        <v>0.36036036036037</v>
+        <v>-6.2227753578105997E-2</v>
       </c>
       <c r="K39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D39)</f>
-        <v>0</v>
+        <v>-0.36927621861151</v>
       </c>
       <c r="L39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D39)</f>
-        <v>0.14880952380953</v>
+        <v>0.34309844286092001</v>
       </c>
       <c r="M39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D39)</f>
-        <v>-0.62893081761005998</v>
+        <v>-0.97192224622029999</v>
       </c>
       <c r="N39">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D39)</f>
-        <v>-7.3855243722302996E-2</v>
+        <v>-0.76259281557294001</v>
       </c>
     </row>
     <row r="40" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D40" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45249</v>
+        <v>45266</v>
       </c>
       <c r="E40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D40)</f>
-        <v>0</v>
+        <v>0.29970029970029</v>
       </c>
       <c r="F40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D40)</f>
-        <v>0</v>
+        <v>1.1612903225805999</v>
       </c>
       <c r="G40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D40)</f>
-        <v>0</v>
+        <v>-0.40485829959514003</v>
       </c>
       <c r="H40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D40)</f>
-        <v>0</v>
+        <v>2.5590551181102001</v>
       </c>
       <c r="I40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D40)</f>
-        <v>0</v>
+        <v>0.92687950566426003</v>
       </c>
       <c r="J40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D40)</f>
-        <v>0</v>
+        <v>-0.92478421701601998</v>
       </c>
       <c r="K40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D40)</f>
-        <v>0</v>
+        <v>2.1116138763198</v>
       </c>
       <c r="L40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D40)</f>
-        <v>0</v>
+        <v>0.50397877984084005</v>
       </c>
       <c r="M40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D40)</f>
-        <v>0</v>
+        <v>2.4336283185841001</v>
       </c>
       <c r="N40">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D40)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D41" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45248</v>
+        <v>45265</v>
       </c>
       <c r="E41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D41)</f>
-        <v>0</v>
+        <v>-0.89108910891088999</v>
       </c>
       <c r="F41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D41)</f>
-        <v>0</v>
+        <v>-0.51347881899872005</v>
       </c>
       <c r="G41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D41)</f>
-        <v>0</v>
+        <v>-1.0303377218087999</v>
       </c>
       <c r="H41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D41)</f>
-        <v>0</v>
+        <v>-0.29440628066731001</v>
       </c>
       <c r="I41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D41)</f>
-        <v>0</v>
+        <v>-2.2155085599194</v>
       </c>
       <c r="J41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D41)</f>
-        <v>0</v>
+        <v>-2.4654239326518002</v>
       </c>
       <c r="K41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D41)</f>
-        <v>0</v>
+        <v>-0.82273747195212998</v>
       </c>
       <c r="L41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D41)</f>
-        <v>0</v>
+        <v>-1.1277209546289</v>
       </c>
       <c r="M41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D41)</f>
-        <v>0</v>
+        <v>-1.6322089227420999</v>
       </c>
       <c r="N41">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D41)</f>
-        <v>0</v>
+        <v>1.1612326931665999</v>
       </c>
     </row>
     <row r="42" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D42" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45247</v>
+        <v>45264</v>
       </c>
       <c r="E42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D42)</f>
-        <v>9.4250706880300003E-2</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D42)</f>
-        <v>0.92823496813520001</v>
+        <v>1.1688311688312001</v>
       </c>
       <c r="G42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D42)</f>
-        <v>-0.31141868512110998</v>
+        <v>-0.11435105774727999</v>
       </c>
       <c r="H42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D42)</f>
-        <v>1.3948497854077</v>
+        <v>1.2922465208747</v>
       </c>
       <c r="I42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D42)</f>
-        <v>-0.66666666666666996</v>
+        <v>-0.40120361083250999</v>
       </c>
       <c r="J42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D42)</f>
-        <v>1.4625228519196001</v>
+        <v>-0.89392133492254</v>
       </c>
       <c r="K42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D42)</f>
-        <v>0</v>
+        <v>7.4850299401196002E-2</v>
       </c>
       <c r="L42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D42)</f>
-        <v>-0.37064492216457001</v>
+        <v>-1.4983208473263001</v>
       </c>
       <c r="M42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D42)</f>
-        <v>0.11448196908987</v>
+        <v>0.10893246187364</v>
       </c>
       <c r="N42">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D42)</f>
-        <v>0</v>
+        <v>1.7727272727273</v>
       </c>
     </row>
     <row r="43" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D43" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45246</v>
+        <v>45263</v>
       </c>
       <c r="E43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D43)</f>
-        <v>-2.1217712177122001</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D43)</f>
-        <v>-3.6572343833422001</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D43)</f>
-        <v>-1.7341040462427999</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D43)</f>
-        <v>0.97508125677140001</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D43)</f>
@@ -2505,45 +2505,45 @@
       </c>
       <c r="J43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D43)</f>
-        <v>-1.2635379061372001</v>
+        <v>0</v>
       </c>
       <c r="K43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D43)</f>
-        <v>-1.6611295681063001</v>
+        <v>0</v>
       </c>
       <c r="L43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D43)</f>
-        <v>-0.36927621861151</v>
+        <v>0</v>
       </c>
       <c r="M43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D43)</f>
-        <v>-0.73863636363637997</v>
+        <v>0</v>
       </c>
       <c r="N43">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D43)</f>
-        <v>-0.73313782991203003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D44" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45245</v>
+        <v>45262</v>
       </c>
       <c r="E44">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D44)</f>
-        <v>1.8796992481203001</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D44)</f>
-        <v>2.0569404713254</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D44)</f>
-        <v>0.99587912087912001</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D44)</f>
-        <v>0.98468271334792001</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D44)</f>
@@ -2551,275 +2551,275 @@
       </c>
       <c r="J44">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D44)</f>
-        <v>1.4652014652015</v>
+        <v>0</v>
       </c>
       <c r="K44">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D44)</f>
-        <v>0.33333333333332998</v>
+        <v>0</v>
       </c>
       <c r="L44">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D44)</f>
-        <v>0.81906180193596001</v>
+        <v>0</v>
       </c>
       <c r="M44">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D44)</f>
-        <v>2.6239067055394001</v>
+        <v>0</v>
       </c>
       <c r="N44">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D44)</f>
-        <v>0.44182621502209002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D45" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45244</v>
+        <v>45261</v>
       </c>
       <c r="E45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D45)</f>
-        <v>-0.18761726078798999</v>
+        <v>0.1001001001001</v>
       </c>
       <c r="F45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D45)</f>
-        <v>-1.3041140091422001</v>
+        <v>-2.2842639593909002</v>
       </c>
       <c r="G45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D45)</f>
-        <v>6.8728522336768003E-2</v>
+        <v>-1.1305822498586999</v>
       </c>
       <c r="H45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D45)</f>
-        <v>-1.6146393972013</v>
+        <v>0.70070070070070001</v>
       </c>
       <c r="I45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D45)</f>
-        <v>0</v>
+        <v>0.30181086519116002</v>
       </c>
       <c r="J45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D45)</f>
-        <v>0.36764705882352</v>
+        <v>0.29886431560072002</v>
       </c>
       <c r="K45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D45)</f>
-        <v>0.33444816053511001</v>
+        <v>-0.66914498141264001</v>
       </c>
       <c r="L45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D45)</f>
-        <v>-1.0316875460574999</v>
+        <v>-0.10322580645161</v>
       </c>
       <c r="M45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D45)</f>
-        <v>-0.98152424942264005</v>
+        <v>0.10905125408942</v>
       </c>
       <c r="N45">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D45)</f>
-        <v>0.14749262536873001</v>
+        <v>4.5475216007282999E-2</v>
       </c>
     </row>
     <row r="46" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D46" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45243</v>
+        <v>45260</v>
       </c>
       <c r="E46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D46)</f>
-        <v>-0.46685340802989</v>
+        <v>-0.39880358923228998</v>
       </c>
       <c r="F46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D46)</f>
-        <v>0.59507708953204996</v>
+        <v>0.51020408163264996</v>
       </c>
       <c r="G46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D46)</f>
-        <v>0</v>
+        <v>-0.28184892897405001</v>
       </c>
       <c r="H46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D46)</f>
-        <v>0.32397408207342998</v>
+        <v>0.40201005025127001</v>
       </c>
       <c r="I46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D46)</f>
-        <v>0.67114093959732002</v>
+        <v>-0.30090270812438003</v>
       </c>
       <c r="J46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D46)</f>
-        <v>1.1152416356877</v>
+        <v>-2.2780373831776002</v>
       </c>
       <c r="K46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D46)</f>
-        <v>1.3559322033898</v>
+        <v>0</v>
       </c>
       <c r="L46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D46)</f>
-        <v>0</v>
+        <v>-0.41120534566948003</v>
       </c>
       <c r="M46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D46)</f>
-        <v>5.4811205846529001</v>
+        <v>-0.54229934924079004</v>
       </c>
       <c r="N46">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D46)</f>
-        <v>-0.36737692872887001</v>
+        <v>-0.83427282976326</v>
       </c>
     </row>
     <row r="47" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D47" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45242</v>
+        <v>45259</v>
       </c>
       <c r="E47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D47)</f>
-        <v>0</v>
+        <v>-0.39721946375373002</v>
       </c>
       <c r="F47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D47)</f>
-        <v>0</v>
+        <v>1.1612903225805999</v>
       </c>
       <c r="G47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D47)</f>
-        <v>0</v>
+        <v>-0.50476724621423996</v>
       </c>
       <c r="H47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D47)</f>
-        <v>0</v>
+        <v>-0.89641434262948005</v>
       </c>
       <c r="I47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D47)</f>
-        <v>0</v>
+        <v>-2.5415444770283</v>
       </c>
       <c r="J47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D47)</f>
-        <v>0</v>
+        <v>-0.23310023310023001</v>
       </c>
       <c r="K47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D47)</f>
-        <v>0</v>
+        <v>-0.66469719350073997</v>
       </c>
       <c r="L47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D47)</f>
-        <v>0</v>
+        <v>-1.493670886076</v>
       </c>
       <c r="M47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D47)</f>
-        <v>0</v>
+        <v>-0.43196544276457</v>
       </c>
       <c r="N47">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D47)</f>
-        <v>0</v>
+        <v>-0.47127468581687998</v>
       </c>
     </row>
     <row r="48" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D48" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45241</v>
+        <v>45258</v>
       </c>
       <c r="E48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D48)</f>
-        <v>0</v>
+        <v>1.5120967741936</v>
       </c>
       <c r="F48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D48)</f>
-        <v>0</v>
+        <v>0.12919896640827</v>
       </c>
       <c r="G48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D48)</f>
-        <v>0</v>
+        <v>0.67758328627891995</v>
       </c>
       <c r="H48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D48)</f>
-        <v>0</v>
+        <v>-0.39682539682541002</v>
       </c>
       <c r="I48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D48)</f>
-        <v>0</v>
+        <v>-1.1594202898551</v>
       </c>
       <c r="J48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D48)</f>
-        <v>0</v>
+        <v>1.2987012987013</v>
       </c>
       <c r="K48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D48)</f>
-        <v>0</v>
+        <v>0.14792899408283999</v>
       </c>
       <c r="L48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D48)</f>
-        <v>0</v>
+        <v>0.68824878919194998</v>
       </c>
       <c r="M48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D48)</f>
-        <v>0</v>
+        <v>0.76169749727964997</v>
       </c>
       <c r="N48">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D48)</f>
-        <v>0</v>
+        <v>0.83729350531795999</v>
       </c>
     </row>
     <row r="49" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D49" s="6">
         <f t="shared" ref="D49" ca="1" si="1">D48-1</f>
-        <v>45240</v>
+        <v>45257</v>
       </c>
       <c r="E49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D49)</f>
-        <v>-0.18639328984156001</v>
+        <v>-0.70070070070070001</v>
       </c>
       <c r="F49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D49)</f>
-        <v>-1.4790139906729001</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D49)</f>
-        <v>0.17211703958692001</v>
+        <v>-0.89535534415220996</v>
       </c>
       <c r="H49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D49)</f>
-        <v>2.2075055187638002</v>
+        <v>-0.98231827111984005</v>
       </c>
       <c r="I49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D49)</f>
-        <v>-0.66666666666666996</v>
+        <v>-0.86206896551723999</v>
       </c>
       <c r="J49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D49)</f>
-        <v>-0.55452865064695001</v>
+        <v>1.0739856801909</v>
       </c>
       <c r="K49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D49)</f>
-        <v>-1.0067114093959999</v>
+        <v>-7.3909830007389002E-2</v>
       </c>
       <c r="L49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D49)</f>
-        <v>0</v>
+        <v>-1.3081761006289001</v>
       </c>
       <c r="M49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D49)</f>
-        <v>0.67443286327408003</v>
+        <v>0.65717415115003996</v>
       </c>
       <c r="N49">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D49)</f>
-        <v>-0.94614264919942004</v>
+        <v>-2.9004614370468</v>
       </c>
     </row>
     <row r="50" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D50" s="6">
         <f t="shared" ref="D50" ca="1" si="2">D49-1</f>
-        <v>45239</v>
+        <v>45256</v>
       </c>
       <c r="E50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D50)</f>
-        <v>9.3283582089549996E-2</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D50)</f>
-        <v>0.25380710659897998</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D50)</f>
-        <v>-0.75162282200205</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D50)</f>
-        <v>2.6047565118913001</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D50)</f>
@@ -2835,213 +2835,213 @@
       </c>
       <c r="L50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D50)</f>
-        <v>2.6475037821482998</v>
+        <v>0</v>
       </c>
       <c r="M50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D50)</f>
-        <v>0.55487053020961996</v>
+        <v>0</v>
       </c>
       <c r="N50">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D50)</f>
-        <v>1.4771048744460999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D51" s="6">
         <f t="shared" ref="D51" ca="1" si="3">D50-1</f>
-        <v>45238</v>
+        <v>45255</v>
       </c>
       <c r="E51">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D51)</f>
-        <v>-0.64874884151990997</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D51)</f>
-        <v>0.55070517125587004</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D51)</f>
-        <v>-1.4478114478113999</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D51)</f>
-        <v>-1.3407821229050001</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D51)</f>
-        <v>-0.66225165562914001</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D51)</f>
-        <v>-1.4571948998179001</v>
+        <v>0</v>
       </c>
       <c r="K51">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D51)</f>
-        <v>-1.6501650165016</v>
+        <v>0</v>
       </c>
       <c r="L51">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D51)</f>
-        <v>-0.67618332081141996</v>
+        <v>0</v>
       </c>
       <c r="M51">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D51)</f>
-        <v>-0.67360685854255997</v>
+        <v>0</v>
       </c>
       <c r="N51">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D51)</f>
-        <v>-0.44117647058824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D52" s="6">
         <f t="shared" ref="D52" ca="1" si="4">D51-1</f>
-        <v>45237</v>
+        <v>45254</v>
       </c>
       <c r="E52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D52)</f>
-        <v>-1.1904761904762</v>
+        <v>-9.9999999999997993E-2</v>
       </c>
       <c r="F52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D52)</f>
-        <v>0.49946004319655002</v>
+        <v>0.25906735751296001</v>
       </c>
       <c r="G52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D52)</f>
-        <v>0.13486176668913999</v>
+        <v>-0.77734591893393001</v>
       </c>
       <c r="H52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D52)</f>
-        <v>-0.22296544035676</v>
+        <v>-2.2094140249760001</v>
       </c>
       <c r="I52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D52)</f>
-        <v>0</v>
+        <v>0.28818443804034</v>
       </c>
       <c r="J52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D52)</f>
-        <v>-0.36297640653357</v>
+        <v>-1.4697236919459</v>
       </c>
       <c r="K52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D52)</f>
-        <v>-1.3029315960912</v>
+        <v>-0.80645161290322998</v>
       </c>
       <c r="L52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D52)</f>
-        <v>-7.5075075075072994E-2</v>
+        <v>-0.52552552552553</v>
       </c>
       <c r="M52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D52)</f>
-        <v>-1.8629807692308</v>
+        <v>-1.1904761904762</v>
       </c>
       <c r="N52">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D52)</f>
-        <v>-1.6630513376717</v>
+        <v>-1.2798264642082999</v>
       </c>
     </row>
     <row r="53" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D53" s="6">
         <f t="shared" ref="D53" ca="1" si="5">D52-1</f>
-        <v>45236</v>
+        <v>45253</v>
       </c>
       <c r="E53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D53)</f>
-        <v>1.7707362534949</v>
+        <v>-0.29910269192422001</v>
       </c>
       <c r="F53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D53)</f>
-        <v>4.9143180852570003</v>
+        <v>1.9815059445178</v>
       </c>
       <c r="G53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D53)</f>
-        <v>-0.46979865771812002</v>
+        <v>1.0662177328844</v>
       </c>
       <c r="H53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D53)</f>
-        <v>-1.1025358324145</v>
+        <v>0.87209302325580995</v>
       </c>
       <c r="I53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D53)</f>
-        <v>0</v>
+        <v>-0.38277511961721999</v>
       </c>
       <c r="J53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D53)</f>
-        <v>0.54744525547444001</v>
+        <v>1.8562874251496999</v>
       </c>
       <c r="K53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D53)</f>
-        <v>0.32679738562090999</v>
+        <v>0.36791758646063999</v>
       </c>
       <c r="L53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D53)</f>
-        <v>-0.14992503748125999</v>
+        <v>1.4213197969543001</v>
       </c>
       <c r="M53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D53)</f>
-        <v>4.3260188087774001</v>
+        <v>0.87336244541484997</v>
       </c>
       <c r="N53">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D53)</f>
-        <v>0.72833211944647003</v>
+        <v>0.39198606271776998</v>
       </c>
     </row>
     <row r="54" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D54" s="6">
         <f t="shared" ref="D54:D65" ca="1" si="6">D53-1</f>
-        <v>45235</v>
+        <v>45252</v>
       </c>
       <c r="E54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D54)</f>
-        <v>0</v>
+        <v>-2.6213592233009999</v>
       </c>
       <c r="F54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D54)</f>
-        <v>0</v>
+        <v>-0.65616797900262003</v>
       </c>
       <c r="G54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D54)</f>
-        <v>0</v>
+        <v>-0.77951002227171995</v>
       </c>
       <c r="H54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D54)</f>
-        <v>0</v>
+        <v>-1.9011406844106</v>
       </c>
       <c r="I54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D54)</f>
-        <v>0</v>
+        <v>-0.57088487155090994</v>
       </c>
       <c r="J54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D54)</f>
-        <v>0</v>
+        <v>-2.39625949737</v>
       </c>
       <c r="K54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D54)</f>
-        <v>0</v>
+        <v>7.363770250368E-2</v>
       </c>
       <c r="L54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D54)</f>
-        <v>0</v>
+        <v>-0.75566750629724</v>
       </c>
       <c r="M54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D54)</f>
-        <v>0</v>
+        <v>-0.97297297297297003</v>
       </c>
       <c r="N54">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D54)</f>
-        <v>0</v>
+        <v>-2.4017003188097998</v>
       </c>
     </row>
     <row r="55" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D55" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45234</v>
+        <v>45251</v>
       </c>
       <c r="E55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D55)</f>
-        <v>0</v>
+        <v>4.0404040404039998</v>
       </c>
       <c r="F55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D55)</f>
-        <v>0</v>
+        <v>-0.78125</v>
       </c>
       <c r="G55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D55)</f>
@@ -3049,53 +3049,53 @@
       </c>
       <c r="H55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D55)</f>
-        <v>0</v>
+        <v>-0.47303689687796002</v>
       </c>
       <c r="I55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D55)</f>
-        <v>0</v>
+        <v>0.28625954198473003</v>
       </c>
       <c r="J55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D55)</f>
-        <v>0</v>
+        <v>-0.86906141367324996</v>
       </c>
       <c r="K55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D55)</f>
-        <v>0</v>
+        <v>-7.3583517292125006E-2</v>
       </c>
       <c r="L55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D55)</f>
-        <v>0</v>
+        <v>-0.37641154328732002</v>
       </c>
       <c r="M55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D55)</f>
-        <v>0</v>
+        <v>-0.32327586206895997</v>
       </c>
       <c r="N55">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D55)</f>
-        <v>0</v>
+        <v>-1.1969760604788</v>
       </c>
     </row>
     <row r="56" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D56" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45233</v>
+        <v>45250</v>
       </c>
       <c r="E56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D56)</f>
-        <v>0.37418147801684998</v>
+        <v>0.40567951318459</v>
       </c>
       <c r="F56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D56)</f>
-        <v>6.3724013257005003</v>
+        <v>1.8567639257294</v>
       </c>
       <c r="G56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D56)</f>
-        <v>0.53981106612686003</v>
+        <v>0.27917364600782002</v>
       </c>
       <c r="H56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D56)</f>
-        <v>0.44296788482836003</v>
+        <v>-0.47080979284368002</v>
       </c>
       <c r="I56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D56)</f>
@@ -3103,41 +3103,41 @@
       </c>
       <c r="J56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D56)</f>
-        <v>-0.36363636363635998</v>
+        <v>0.87668030391584995</v>
       </c>
       <c r="K56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D56)</f>
-        <v>-0.64935064935065001</v>
+        <v>1.1160714285714</v>
       </c>
       <c r="L56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D56)</f>
-        <v>0.52750565184626996</v>
+        <v>0.15079165619502999</v>
       </c>
       <c r="M56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D56)</f>
-        <v>0</v>
+        <v>-0.21505376344086999</v>
       </c>
       <c r="N56">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D56)</f>
-        <v>2.0059435364042</v>
+        <v>0.67653276955603003</v>
       </c>
     </row>
     <row r="57" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D57" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45232</v>
+        <v>45249</v>
       </c>
       <c r="E57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D57)</f>
-        <v>-1.2927054478301001</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D57)</f>
-        <v>-2.5113819944192</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D57)</f>
-        <v>-1.1670556852284</v>
+        <v>0</v>
       </c>
       <c r="H57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D57)</f>
@@ -3149,45 +3149,45 @@
       </c>
       <c r="J57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D57)</f>
-        <v>-1.0791366906475</v>
+        <v>0</v>
       </c>
       <c r="K57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D57)</f>
-        <v>-1.2820512820512999</v>
+        <v>0</v>
       </c>
       <c r="L57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D57)</f>
-        <v>-0.52473763118440997</v>
+        <v>0</v>
       </c>
       <c r="M57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D57)</f>
-        <v>-2.3867809057528002</v>
+        <v>0</v>
       </c>
       <c r="N57">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D57)</f>
-        <v>-0.59084194977841997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D58" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45231</v>
+        <v>45248</v>
       </c>
       <c r="E58">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D58)</f>
-        <v>-0.55096418732783004</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D58)</f>
-        <v>-1.4901620370369999</v>
+        <v>0</v>
       </c>
       <c r="G58">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D58)</f>
-        <v>6.6733400066731993E-2</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D58)</f>
-        <v>-0.98684210526315996</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D58)</f>
@@ -3195,345 +3195,345 @@
       </c>
       <c r="J58">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D58)</f>
-        <v>3.1539888682745998</v>
+        <v>0</v>
       </c>
       <c r="K58">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D58)</f>
-        <v>0.64516129032257996</v>
+        <v>0</v>
       </c>
       <c r="L58">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D58)</f>
-        <v>-0.44776119402984998</v>
+        <v>0</v>
       </c>
       <c r="M58">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D58)</f>
-        <v>-0.24420024420024</v>
+        <v>0</v>
       </c>
       <c r="N58">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D58)</f>
-        <v>-0.29455081001472999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D59" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45230</v>
+        <v>45247</v>
       </c>
       <c r="E59">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D59)</f>
-        <v>-0.27472527472526997</v>
+        <v>0.61224489795917003</v>
       </c>
       <c r="F59">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D59)</f>
-        <v>-4.2791857083506004</v>
+        <v>2.1680216802168002</v>
       </c>
       <c r="G59">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D59)</f>
-        <v>1.3527223537369</v>
+        <v>-0.22284122562674</v>
       </c>
       <c r="H59">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D59)</f>
-        <v>2.2421524663676999</v>
+        <v>9.4250706880300003E-2</v>
       </c>
       <c r="I59">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D59)</f>
-        <v>-0.65789473684210997</v>
+        <v>-0.56925996204931995</v>
       </c>
       <c r="J59">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D59)</f>
-        <v>2.0833333333333002</v>
+        <v>0.52878965922443999</v>
       </c>
       <c r="K59">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D59)</f>
-        <v>0.32362459546925998</v>
+        <v>-0.37064492216457001</v>
       </c>
       <c r="L59">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D59)</f>
-        <v>0.37453183520599997</v>
+        <v>-0.40050062578223999</v>
       </c>
       <c r="M59">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D59)</f>
-        <v>-2.1505376344085998</v>
+        <v>1.4176663031625001</v>
       </c>
       <c r="N59">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D59)</f>
-        <v>-0.43988269794722001</v>
+        <v>0.61689002339927002</v>
       </c>
     </row>
     <row r="60" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D60" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45229</v>
+        <v>45246</v>
       </c>
       <c r="E60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D60)</f>
-        <v>-1.1764705882352999</v>
+        <v>-0.91001011122345998</v>
       </c>
       <c r="F60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D60)</f>
-        <v>-0.30374154355931998</v>
+        <v>-0.53908355795148</v>
       </c>
       <c r="G60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D60)</f>
-        <v>6.7681895093060995E-2</v>
+        <v>-0.55401662049861999</v>
       </c>
       <c r="H60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D60)</f>
-        <v>-2.6200873362445001</v>
+        <v>-2.1217712177122001</v>
       </c>
       <c r="I60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D60)</f>
-        <v>0.66225165562914001</v>
+        <v>-0.75329566854991004</v>
       </c>
       <c r="J60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D60)</f>
-        <v>-0.37735849056602999</v>
+        <v>-1.276102088167</v>
       </c>
       <c r="K60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D60)</f>
-        <v>1.3114754098360999</v>
+        <v>-0.66273932253314005</v>
       </c>
       <c r="L60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D60)</f>
-        <v>-0.14958863126402</v>
+        <v>-1.0893785590492999</v>
       </c>
       <c r="M60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D60)</f>
-        <v>2.8887523048556001</v>
+        <v>-1.6094420600857999</v>
       </c>
       <c r="N60">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D60)</f>
-        <v>-0.21945866861741001</v>
+        <v>-2.8317486564696002</v>
       </c>
     </row>
     <row r="61" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D61" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45228</v>
+        <v>45245</v>
       </c>
       <c r="E61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D61)</f>
-        <v>0</v>
+        <v>-0.90180360721442998</v>
       </c>
       <c r="F61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D61)</f>
-        <v>0</v>
+        <v>2.3448275862068999</v>
       </c>
       <c r="G61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D61)</f>
-        <v>0</v>
+        <v>0.61315496098104005</v>
       </c>
       <c r="H61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D61)</f>
-        <v>0</v>
+        <v>1.8796992481203001</v>
       </c>
       <c r="I61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D61)</f>
-        <v>0</v>
+        <v>-9.4073377234257002E-2</v>
       </c>
       <c r="J61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D61)</f>
-        <v>0</v>
+        <v>-0.40439052570769002</v>
       </c>
       <c r="K61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D61)</f>
-        <v>0</v>
+        <v>1.3432835820896001</v>
       </c>
       <c r="L61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D61)</f>
-        <v>0</v>
+        <v>1.1520160280491001</v>
       </c>
       <c r="M61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D61)</f>
-        <v>0</v>
+        <v>1.8579234972678</v>
       </c>
       <c r="N61">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D61)</f>
-        <v>0</v>
+        <v>2.3698688108337</v>
       </c>
     </row>
     <row r="62" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D62" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45227</v>
+        <v>45244</v>
       </c>
       <c r="E62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D62)</f>
-        <v>0</v>
+        <v>1.9407558733401999</v>
       </c>
       <c r="F62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D62)</f>
-        <v>0</v>
+        <v>2.2566995768688001</v>
       </c>
       <c r="G62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D62)</f>
-        <v>0</v>
+        <v>-0.93870789618993999</v>
       </c>
       <c r="H62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D62)</f>
-        <v>0</v>
+        <v>-0.18761726078798999</v>
       </c>
       <c r="I62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D62)</f>
-        <v>0</v>
+        <v>0.94966761633429997</v>
       </c>
       <c r="J62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D62)</f>
-        <v>0</v>
+        <v>5.7803468208081001E-2</v>
       </c>
       <c r="K62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D62)</f>
-        <v>0</v>
+        <v>-0.14903129657228001</v>
       </c>
       <c r="L62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D62)</f>
-        <v>0</v>
+        <v>-0.62220009955202005</v>
       </c>
       <c r="M62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D62)</f>
-        <v>0</v>
+        <v>-0.97402597402597002</v>
       </c>
       <c r="N62">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D62)</f>
-        <v>0</v>
+        <v>-1.5211502396333001</v>
       </c>
     </row>
     <row r="63" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D63" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45226</v>
+        <v>45243</v>
       </c>
       <c r="E63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D63)</f>
-        <v>1.4692378328742</v>
+        <v>1.5560165975103999</v>
       </c>
       <c r="F63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D63)</f>
-        <v>5.3680535350597003</v>
+        <v>1.2857142857143</v>
       </c>
       <c r="G63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D63)</f>
-        <v>1.6511867905057001</v>
+        <v>0</v>
       </c>
       <c r="H63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D63)</f>
-        <v>-0.21786492374727001</v>
+        <v>-0.46685340802989</v>
       </c>
       <c r="I63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D63)</f>
-        <v>2.0270270270270001</v>
+        <v>-0.4725897920605</v>
       </c>
       <c r="J63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D63)</f>
-        <v>1.7274472168906001</v>
+        <v>-1.3120365088420001</v>
       </c>
       <c r="K63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D63)</f>
-        <v>2.0066889632107001</v>
+        <v>0.37397157816006998</v>
       </c>
       <c r="L63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D63)</f>
-        <v>-0.22388059701492999</v>
+        <v>0.14955134596212</v>
       </c>
       <c r="M63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D63)</f>
-        <v>1.6239850093691</v>
+        <v>0.87336244541484997</v>
       </c>
       <c r="N63">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D63)</f>
-        <v>1.7113095238095</v>
+        <v>8.3420229405629001E-2</v>
       </c>
     </row>
     <row r="64" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D64" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45225</v>
+        <v>45242</v>
       </c>
       <c r="E64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D64)</f>
-        <v>-0.63868613138686003</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D64)</f>
-        <v>-0.39124764526882</v>
+        <v>0</v>
       </c>
       <c r="G64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D64)</f>
-        <v>3.0851063829787</v>
+        <v>0</v>
       </c>
       <c r="H64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D64)</f>
-        <v>-2.3404255319148999</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D64)</f>
-        <v>-0.67114093959732002</v>
+        <v>0</v>
       </c>
       <c r="J64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D64)</f>
-        <v>0.19230769230768999</v>
+        <v>0</v>
       </c>
       <c r="K64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D64)</f>
-        <v>0.33557046979867</v>
+        <v>0</v>
       </c>
       <c r="L64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D64)</f>
-        <v>-3.8737446197990999</v>
+        <v>0</v>
       </c>
       <c r="M64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D64)</f>
-        <v>6.2500000000010006E-2</v>
+        <v>0</v>
       </c>
       <c r="N64">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D64)</f>
-        <v>0.67415730337079005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D65" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>45224</v>
+        <v>45241</v>
       </c>
       <c r="E65">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$3,$D65)</f>
-        <v>0.82796688132476004</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$4,$D65)</f>
-        <v>-2.3627617430673</v>
+        <v>0</v>
       </c>
       <c r="G65">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$5,$D65)</f>
-        <v>-1.7421602787456001</v>
+        <v>0</v>
       </c>
       <c r="H65">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$6,$D65)</f>
-        <v>2.1739130434782998</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$7,$D65)</f>
-        <v>1.3605442176871001</v>
+        <v>0</v>
       </c>
       <c r="J65">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$8,$D65)</f>
-        <v>1.9607843137255001</v>
+        <v>0</v>
       </c>
       <c r="K65">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$9,$D65)</f>
-        <v>2.0547945205479001</v>
+        <v>0</v>
       </c>
       <c r="L65">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$10,$D65)</f>
-        <v>1.1611030478955</v>
+        <v>0</v>
       </c>
       <c r="M65">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$11,$D65)</f>
-        <v>0.75566750629722002</v>
+        <v>0</v>
       </c>
       <c r="N65">
         <f ca="1">[1]!thsiFinD("ths_chg_ratio_stock",$A$12,$D65)</f>
-        <v>-0.96439169139465997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="4:14" x14ac:dyDescent="0.25">
